--- a/dhreg_export_v1_0_0.xlsx
+++ b/dhreg_export_v1_0_0.xlsx
@@ -493,24 +493,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_AmkomstPCIcenter</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_KroniskLungesygdom</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_Lokalisation</t>
+          <t>Ecpr_HS_hosp_udskr_ilive</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "post" | "inf" | "grenblok" | "ef_klassificerbar" | "ant" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_Komplikation</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_NYHA</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ingen" | "mitralinsufficiens" | "vsd" | "frivaegsruptur" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "i" | "ii" | "iii" | "iv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -580,24 +580,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ecpr_HS_ems_amb_ank</t>
+          <t>Kir_KirPrognostiskeFaktorer_Hoejde</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Less than or equal to: 230 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciIndstiksrelaterede_LukkedeviceBetingetKomplBehovForKirurgi</t>
+          <t>Ecpr_HS_revask</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja__ad_hoc_pci" | "nej__elektiv_pci_hvis_restitueres" | "nej__stenoser_men_ikke_pci" | "nej__ikke_stenoser" | "nej__cabg_hvis_restitueres" | "nej__ny_kag_hvis_restitueres" | "nej__hjertekonf__hvis_restitueres" | "ja__cab_akut_subakut" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciIndstiksrelaterede_Pseudoaneurysme</t>
+          <t>Ecpr_HS_defib_lab</t>
         </is>
       </c>
     </row>
@@ -667,24 +667,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_Debuttidspunkt</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_MorsInTabula</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -696,24 +696,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PciSegmentList_pciCTO_antegrad_retrograd</t>
+          <t>Ecpr_HS_icu_udskr_tid</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "antegrad" | "retrograd" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_AnamneseBT_Diastolisk</t>
+          <t>Kir_TidPaaIntensivITimer</t>
         </is>
       </c>
     </row>
@@ -740,6 +740,11 @@
           <t>Integer</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Less than or equal to: 4380 | Greater than or equal to: 0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -749,7 +754,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_AkutCabg</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_DcKonvertering</t>
         </is>
       </c>
     </row>
@@ -778,7 +783,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_AkutPci</t>
+          <t>Ecpr_HS_imp_afv</t>
         </is>
       </c>
     </row>
@@ -807,24 +812,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_AnamneseDatoTidspunkt</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_Andet</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="D25" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Maximum length: 100 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -836,7 +841,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pci_PciPrognostiskeFaktorer_Vaegt</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_AktivEndokardit</t>
         </is>
       </c>
     </row>
@@ -848,12 +853,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Less than or equal to: 250 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -865,7 +870,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_ForhoejedeIskaemimarkoerer</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_Sidegrensokklusion</t>
         </is>
       </c>
     </row>
@@ -894,7 +899,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_AmiProcedurerelateret</t>
+          <t>Ecpr_HS_defib_antal_lab</t>
         </is>
       </c>
     </row>
@@ -906,12 +911,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_IntrakranialBloedning</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_Haematom</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "stoerre_end_5x5_cm" | "stoerre_end_10x10_cm" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_RetroperitonealBloedning</t>
+          <t>Ecpr_HS_low_flow_foer</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -981,7 +976,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_AndenStoerreBloedning</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_CCSKlasse4Angina</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1005,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pci_PciPrognostiskeFaktorer_Hoejde</t>
+          <t>Ecpr_HS_Ino_Type_Levodimendan</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1017,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Less than or equal to: 230 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -1039,7 +1034,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pci_PciPrognostiskeFaktorer_Rygning</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_Pulmonalhypertension</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1051,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "aldrig" | "ophoert" | "aktiv" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "moderat" | "svaer" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -1068,7 +1063,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pci_PciPrognostiskeFaktorer_Diabetes</t>
+          <t>Kir_KirKomplikationer_ReoperationForBloedning</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1080,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja_non_farmakologisk_behandling" | "ja_insulinbehandling" | "ja_nydiagnosticeret" | "ja_non_insulin_farmakologisk_behandling" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -1097,7 +1092,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_AllergiskReaktionSentIndtraeffende</t>
+          <t>Ecpr_HS_dialyse_indl</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1121,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PciSegmentList_pciCTO_adgange</t>
+          <t>Kir_ProcedureKode8</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1133,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Less than or equal to: 2 | Greater than or equal to: 1</t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -1155,24 +1150,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_TilkommetDialysekrav</t>
+          <t>Ecpr_HS_outcome_lab_doed_datotid</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="D49" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1179,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_AnamneseIHSIFamilien</t>
+          <t>Ecpr_HS_kag</t>
         </is>
       </c>
     </row>
@@ -1213,19 +1208,24 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_AnamneseBT_Systolisk</t>
+          <t>Ecpr_HS_imp_afv_tid</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="D53" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_DiagnostikVisitation</t>
+          <t>Kir_ProcedureKode1</t>
         </is>
       </c>
     </row>
@@ -1249,12 +1249,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "praeh_diag_direkte_til_pci_center" | "praeh_diag__omkring_lokalsygehus" | "diagnose_paa_lokalsygehus" | "overflyttet" | "diagnose_efter_indl__pci_center" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1266,24 +1271,24 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_FirstMedicalContact</t>
+          <t>Ecpr_HS_Ino_Type_Noradrenalin</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="D57" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -1295,24 +1300,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ecpr_HS_alarm_tidspunkt</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_NedsatMobilitet</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="D59" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -1324,7 +1329,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciIndstiksrelaterede_ArterielOkklusionDissektionBehovForKirurgi</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_Institio</t>
         </is>
       </c>
     </row>
@@ -1353,24 +1358,24 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PciSegmentList_pciCTO_CTO</t>
+          <t>Ecpr_HS_kag_kat_ind</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="D63" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1387,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_AkutCabgProcedureinduceret</t>
+          <t>Ecpr_HS_defib_hvem</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1404,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "laegmand" | "sundhedsperson" | "baade_laegmand_og_sundhedsperson" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -1411,7 +1416,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_NoFlowSlowFlow</t>
+          <t>Ecpr_HS_komp_fasciotomi</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1445,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_MekaniskAssist</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_CerebrovaskulaerSygdom</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1462,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -1469,7 +1474,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciIndstiksrelaterede_Haematom</t>
+          <t>Kir_ProcedureKode11</t>
         </is>
       </c>
     </row>
@@ -1481,12 +1486,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "stoerre_end_5x5_cm" | "stoerre_end_10x10_cm" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1503,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PciSegmentList_PciStentFailure</t>
+          <t>Kir_ProcedureKode9</t>
         </is>
       </c>
     </row>
@@ -1510,12 +1515,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "stenttrombose" | "instent_restenose" | "non_instent_restenose__target_vessel_failure_" | "nej" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1532,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_Andet</t>
+          <t>Ecpr_HS_icu_udskr_ilive</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1544,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Maximum length: 100 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -1556,7 +1561,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_DistalEmbolisering</t>
+          <t>Kir_ProcedureKode12</t>
         </is>
       </c>
     </row>
@@ -1568,12 +1573,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1590,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_InvasivtBT_Diastolisk</t>
+          <t>Ecpr_HS_ttm_target</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1602,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str/int, Enum</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | 30 | 31 | 32 | 33 | 34 | 35 | 36 | 37 | 39 | "ukendt" | "ved_ikke" | </t>
         </is>
       </c>
     </row>
@@ -1609,7 +1619,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_BehovForPacing</t>
+          <t>Ecpr_HS_respirator_indl</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1648,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_Fibrinolyse</t>
+          <t>Ecpr_HS_Ino_Type_Dopamin</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1665,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -1667,7 +1677,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_MorsInTabula</t>
+          <t>Kir_ProcedureKode3</t>
         </is>
       </c>
     </row>
@@ -1679,12 +1689,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1706,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ecpr_AnamneseIHSIFamilien</t>
+          <t>Kag_Lvef</t>
         </is>
       </c>
     </row>
@@ -1708,12 +1718,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 100 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1735,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_Institio</t>
+          <t>Ecpr_HS_Ino_foer_afv</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1764,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_DcKonvertering</t>
+          <t>Kir_Hjertelungemaskine</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1793,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_RespInsufficiensRespiratorkraevende</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_KontrastReaktion</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1822,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_Tamponade</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_StrokeUnder12TimerEfterProcedure</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1851,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_KardiogentShockProcInduceret</t>
+          <t>Kir_KirKomplikationer_AmiUnderIndlaeggelsen</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1880,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_KritiskPraeoperativTilstand</t>
+          <t>Ecpr_HS_outcome_lab</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1897,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "doed_paa_lab" | "i_live_ved_afgang" | </t>
         </is>
       </c>
     </row>
@@ -1899,7 +1909,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_KontrastReaktion</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_UstabilAngina</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1938,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_StrokeUnder12TimerEfterProcedure</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_KardiogentShockProcInduceret</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1967,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ecpr_HS_Indikation</t>
+          <t>Ecpr_HS_defib_antal_foer</t>
         </is>
       </c>
     </row>
@@ -1969,12 +1979,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ohca_undersoegt_kard_lab" | "hjertestop_efter_ankomst_kard_lab" | "ihca_undersoeg_kard_lab" | "hypoterm_patient" | "kardiogent_shock_undersoegt_kard_lab" | "postoperativt_va_ecmo_impella" | "anden__uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1991,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_Haematom</t>
+          <t>Ecpr_HS_komp_gibloed</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2008,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "stoerre_end_5x5_cm" | "stoerre_end_10x10_cm" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2015,7 +2020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PciSegmentList_Bifurkatur</t>
+          <t>Ecpr_HS_mors_aarsag</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2037,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "incarceration" | "hjertesvigt" | "multiorgansvigt" | "bloedning_vlst_" | "device_failure" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2044,7 +2049,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_Sidegrensokklusion</t>
+          <t>Kir_ProcedureKode2</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2061,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2078,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciIndstiksrelaterede_BloedningBehovForKirurgi</t>
+          <t>Ecpr_HS_lvef24</t>
         </is>
       </c>
     </row>
@@ -2085,12 +2090,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Kir_KirPakkeforloeb</t>
+          <t>Ecpr_HS_lowflow_lab</t>
         </is>
       </c>
     </row>
@@ -2114,12 +2114,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "stabil_angina_pectoris" | "uap_nstemi" | "hjertesvigt" | "hjerteklapsygdom" | "nej" | "uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2126,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciIndstiksrelaterede_BloedningBehovForTransfusion</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_DiabetesInsulin</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2155,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_AkutPciProcedureinduceret</t>
+          <t>Ecpr_HS_lowflow_total</t>
         </is>
       </c>
     </row>
@@ -2172,12 +2167,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2179,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PciSegmentList_pciCTO_ad_hoc_planlagt</t>
+          <t>Kir_ProcedureKode6</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2191,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ad_hoc" | "planlagt" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2208,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Pci_Henvisningsdiagnose</t>
+          <t>Ecpr_HS_komp_anden</t>
         </is>
       </c>
     </row>
@@ -2230,12 +2220,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2247,7 +2237,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_Heparin</t>
+          <t>Ecpr_HS_komp_ue_isk</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2254,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2276,7 +2266,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Pci_Henvisningsmaade</t>
+          <t>Kir_ProcedureKode10</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2278,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "akut" | "subakut" | "elektiv" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2295,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Pci_Revaskulariseringsgrad</t>
+          <t>Kir_KirKomplikationer_DybSternuminfektion</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2312,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "komplet" | "komplet_delt" | "inkomplet_delt" | "inkomplet_afsluttet" | "hybrid" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2334,7 +2324,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Pci_AntalStents</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_RespInsufficiensRespiratorkraevende</t>
         </is>
       </c>
     </row>
@@ -2346,12 +2336,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Less than or equal to: 15 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2363,24 +2353,24 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Pci_IndlaeggelsesDato</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_SerumKreatininOver200</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="D133" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2392,7 +2382,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Pci_PciIndikation</t>
+          <t>Ecpr_HS_ttm</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2399,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "stemi_primaer_pci" | "stemi_akut_pci_over_12_timer" | "stemi_rescue_pci" | "stemi_faciliteret_primaer_pci" | "stemi_stabiliseret_over_12_timer" | "n_stemi_ikke_stabiliseret" | "n_stemi_stabiliseret" | "uap_ikke_stabiliseret" | "uap_stabiliseret" | "arytmi" | "klapsygdom_incl_endocarditis" | "kardiomyopati_uafklaret_hjerteinsufficiens" | "stabil_ap_og_eller_dokumenteret_iskaemi_tavs_iskaemi" | "kompletterende_pci_efter_pci_for_n_stemi" | "kompletterende_pci_efter_pci_for_stemi" | "kompletterende_pci_efter_pci_for_stabil_ap" | "kompletterende_pci_efter_cabg" | "komplikation_efter_kag" | "komplikation_efter_pci" | "komplikation_efter_cabg" | "institio" | "udredning_foer_anden_stoerre_ikke_kardiel_operation" | "kardiogent_shock" | "andet" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2421,7 +2411,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Pci_Kontrastmaengde</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_AkutPciProcedureinduceret</t>
         </is>
       </c>
     </row>
@@ -2433,12 +2423,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Less than or equal to: 1000 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2450,24 +2440,24 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pci_Roentgenstraaledosis</t>
+          <t>Ecpr_HS_hosp_udskr_tid</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="D139" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Less than or equal to: 1000 | Greater than or equal to: 0</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -2479,29 +2469,24 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pci_ProcedureDato</t>
+          <t>Kir_KirPrognostiskeFaktorer_Diabetes</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="D141" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja_non_farmakologisk_behandling" | "ja_insulinbehandling" | "ja_nydiagnosticeret" | "ja_non_insulin_farmakologisk_behandling" | </t>
         </is>
       </c>
     </row>
@@ -2513,7 +2498,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_Ultralyd</t>
+          <t>Ecpr_HS_defib_foer</t>
         </is>
       </c>
     </row>
@@ -2530,7 +2515,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2542,29 +2527,24 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Pci_Procedurekode1</t>
+          <t>Ecpr_HS_komp_bloed</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="D145" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2556,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Pci_Procedurekode2</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_AkutSegmentOkklusion</t>
         </is>
       </c>
     </row>
@@ -2588,12 +2568,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2605,7 +2585,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Pci_Procedurekode3</t>
+          <t>Ecpr_HS_cpc_udskr</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2597,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "god_funktion__vaagen_og_klar" | "moderat_nedsat_funktion__vaagen__klarer_daglige_goeremaal" | "svaer_nedsat_funktion__vaagen__afhaengig_af_andre" | "coma_eller_vegetativ_tilstand" | "hjernedoed" | "ved_ikke" | </t>
         </is>
       </c>
     </row>
@@ -2634,7 +2614,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_Henvendelsesmoenster</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_Tamponade</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2631,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "transporteret_med_ambulance_til_hospital" | "selvhenvender" | "transporteret_med_helikopter" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2663,7 +2643,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Pci_Procedurekode4</t>
+          <t>Ecpr_HS_Ino_Type_Andet</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2655,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2692,7 +2672,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Pci_Gennemlysningstid</t>
+          <t>Kir_KirPrognostiskeFaktorer_Vaegt</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2689,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Less than or equal to: 120 | Greater than or equal to: 0</t>
+          <t>Less than or equal to: 250 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2701,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PciSegmentList_PciLaesionsbehandlingVurdering</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_AkutCabgProcedureinduceret</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2718,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "angiografisk" | "ffr" | "ifr" | "ivus" | "ofdi" | "nirs" | "oct" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2750,7 +2730,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Pci_KateterStoerrelse</t>
+          <t>Ecpr_HS_ekg_foer_mcs</t>
         </is>
       </c>
     </row>
@@ -2762,12 +2742,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Less than or equal to: 12 | Greater than or equal to: 2</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2779,7 +2759,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PciSegmentList_PciLaesionType</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_EkstrakardielArteriesygdom</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2776,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "a" | "b1" | "b2" | "c" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2808,7 +2788,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_Killip</t>
+          <t>Ecpr_HS_ekg_iskaemi_lab</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2805,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "i" | "ii" | "iii" | "iv" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ekg_ikke_taget" | "ste" | "std" | "bbb" | "ingen" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2837,7 +2817,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Pci_Procedurekode5</t>
+          <t>Kir_KirPrognostiskeFaktorer_Rygning</t>
         </is>
       </c>
     </row>
@@ -2849,12 +2829,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "aldrig" | "ophoert" | "aktiv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2866,7 +2846,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_ASA</t>
+          <t>Ecpr_HS_komp_hjertetampo</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2863,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2895,7 +2875,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Pci_AntalBehandledeLaesioner</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_BehovForPacing</t>
         </is>
       </c>
     </row>
@@ -2907,12 +2887,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Less than or equal to: 15 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2924,7 +2904,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Pci_AntalBehandledeGebeter</t>
+          <t>Ecpr_HS_komp_dvt</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2921,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "1_gebet" | "2_gebeter" | "3_gebeter" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2953,7 +2933,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ecpr_HS_Visitation</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_DistalEmbolisering</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2950,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ems_direkte_kard__lab" | "ems_afdeling_paa_center_foer_kard__lab" | "ems_lokal_sygehus___derefter_kard_lab" | "ems_lokal_sygehus___afdeling_center_foer_kard_lab" | "haendelse_opstaaet_efter_indlaeggelse" | "selvhenvender" | "ukendt_uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -2982,7 +2962,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_AkutSegmentOkklusion</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_NoFlowSlowFlow</t>
         </is>
       </c>
     </row>
@@ -3011,7 +2991,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Pci_PciKomplikationer_PciPeriprocedurale_KoronarPerforation</t>
+          <t>Kir_ProcedureKode5</t>
         </is>
       </c>
     </row>
@@ -3023,12 +3003,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3020,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PciSegmentList_LaesionLaengde</t>
+          <t>Ecpr_HS_ekg_rytme_lab</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3032,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "vf" | "vt" | "pea" | "asystoli" | "afli_afl_svt" | "av_blok_grad_2_3" | "sinusrytme" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3064,24 +3049,24 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Pci_HenvisningsDato</t>
+          <t>Pci_Gennemlysningstid</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="D181" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Less than or equal to: 120 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3078,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_Lokalisation</t>
+          <t>Ecpr_HS_rehab_henv</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3095,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "post" | "inf" | "grenblok" | "ef_klassificerbar" | "ant" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3122,24 +3107,24 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_AnkomstKardLab</t>
+          <t>Pci_Roentgenstraaledosis</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="D185" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Less than or equal to: 1000 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3136,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Kag_FrailtyScore</t>
+          <t>Pci_PciKomplikationer_PciPeriprocedurale_KoronarPerforation</t>
         </is>
       </c>
     </row>
@@ -3163,12 +3148,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Less than or equal to: 9 | Greater than or equal to: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3180,7 +3165,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Kag_HenvistHjertekonference</t>
+          <t>Ecpr_HS_livstegn_foer</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3182,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja" | "ikke_relevant_rosc" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3209,7 +3194,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_Killip</t>
+          <t>Pci_Kontrastmaengde</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3206,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "i" | "ii" | "iii" | "iv" | "uoplyst" | </t>
+          <t>Less than or equal to: 1000 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3223,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_Henvendelsesmoenster</t>
+          <t>Ecpr_HS_imp_type</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3240,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "transporteret_med_ambulance_til_hospital" | "selvhenvender" | "transporteret_med_helikopter" | </t>
+          <t xml:space="preserve">Enums/Udfald: | 2_5 | "cp" | 5_0 | "rp" | "2_5_cp_5_0_kombi" | "cp_smart_assist" | "5_5_smart_assist" | </t>
         </is>
       </c>
     </row>
@@ -3267,7 +3252,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_PCIKontrastFabrikat</t>
+          <t>Pci_AntalBehandledeLaesioner</t>
         </is>
       </c>
     </row>
@@ -3279,12 +3264,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "hexabrix" | "iomeron" | "omnipaque" | "visipaque" | "andet" | "ultravist" | </t>
+          <t>Less than or equal to: 15 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3281,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Kag_KagProcedurevariable_Arytmi</t>
+          <t>Ecpr_HS_icu_lvef_udskr</t>
         </is>
       </c>
     </row>
@@ -3308,12 +3293,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "af" | "blok" | "vfvt" | "andet" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3305,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Kag_KagProcedurevariable_Kardominans</t>
+          <t>Pci_AntalBehandledeGebeter</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3322,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "hoejre" | "venstre" | "balanceret" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "1_gebet" | "2_gebeter" | "3_gebeter" | </t>
         </is>
       </c>
     </row>
@@ -3354,7 +3334,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_CCS</t>
+          <t>Pci_AntalStents</t>
         </is>
       </c>
     </row>
@@ -3366,12 +3346,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "i" | "ii" | "iii" | "iv" | "uoplyst" | </t>
+          <t>Less than or equal to: 15 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -3383,24 +3363,24 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Kag_KagProcedurevariable_KateterInd</t>
+          <t>Ecpr_HS_Ino_Type_Adrenalin</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="D203" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3412,24 +3392,24 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Kag_KagProcedurevariable_KateterUd</t>
+          <t>Pci_Procedurekode5</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="D205" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3421,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_Puls</t>
+          <t>Pci_Procedurekode4</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3433,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3450,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Kag_KagProcedurevariable_ArterielAdgang</t>
+          <t>Ecpr_HS_ka_ank_lab</t>
         </is>
       </c>
     </row>
@@ -3477,12 +3462,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "radialis_dxt_sin" | "ulnaris_dxt_sin" | "brachialis_dxt_sin" | "femoralis_dxt_sin" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3474,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Kag_KagProcedurevariable_Ultralyd</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_KritiskPraeoperativStatus</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3491,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3523,7 +3503,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Kag_KagProcedurevariable_AntalSygeKar</t>
+          <t>Ecpr_HS_bls_ank_lab</t>
         </is>
       </c>
     </row>
@@ -3535,12 +3515,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>str/int, Enum</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | 0 | 1 | 2 | 3 | "diffus" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -3552,7 +3527,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_CCS</t>
+          <t>Ecpr_HS_komp_tarm_isk</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3544,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "i" | "ii" | "iii" | "iv" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3581,7 +3556,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Kag_KagProcedurevariable_Puls</t>
+          <t>Pci_Revaskulariseringsgrad</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3568,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "komplet" | "komplet_delt" | "inkomplet_delt" | "inkomplet_afsluttet" | "hybrid" | </t>
         </is>
       </c>
     </row>
@@ -3605,24 +3585,24 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_KateterUd</t>
+          <t>Ecpr_HS_imp_side</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="D219" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "hoejre" | "venstre" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3634,7 +3614,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Kag_KagProcedurevariable_InvasivtBT_Diastolisk</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_CerebrovaskulaerSygdom</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3626,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3658,7 +3643,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PciSegmentList_Segment</t>
+          <t>Pci_KateterStoerrelse</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3660,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Less than or equal to: 16 | Greater than or equal to: 1</t>
+          <t>Less than or equal to: 12 | Greater than or equal to: 2</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3672,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Kag_KagProcedurevariable_InvasivtBT_Systolisk</t>
+          <t>Ecpr_HS_hb_ank_lab</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3696,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PciSegmentList_SegmentType</t>
+          <t>Kag_KagProcedurevariable_Kardominans</t>
         </is>
       </c>
     </row>
@@ -3728,7 +3713,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nativ" | "lima" | "rima" | "radialis" | "vg" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "hoejre" | "venstre" | "balanceret" | </t>
         </is>
       </c>
     </row>
@@ -3740,7 +3725,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Kag_KagProcedurevariable_KagKontrastFabrikat</t>
+          <t>Ecpr_HS_nyresvigt_indl</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3742,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "hexabrix" | "iomeron" | "omnipaque" | "visipaque" | "andet" | "ultravist" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "kdigo_stage_1" | "kdigo_stage_2" | "kdigo_stage_3" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3769,7 +3754,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_GP3A2B</t>
+          <t>Kag_KagProcedurevariable_Arytmi</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3771,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "af" | "blok" | "vfvt" | "andet" | </t>
         </is>
       </c>
     </row>
@@ -3798,7 +3783,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Kag_KateterinduceretDissektion</t>
+          <t>Ecpr_HS_mek_hlr_foer</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3800,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3827,7 +3812,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Kag_KagKonsekvens</t>
+          <t>Pci_Procedurekode3</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3824,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ingen_behandling" | "operation" | "hjertekonference" | "ad_hoc_pci" | "elektiv_pci" | "medicinsk_behandling" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3841,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Ecpr_Rygning</t>
+          <t>Kag_KateterinduceretDissektion</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3858,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "aldrig" | "ophoert" | "aktiv" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -3885,7 +3870,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Kag_SyntaxScore</t>
+          <t>Ecpr_HS_afem_bypass</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3887,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "lav" | "medium" | "hoej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3914,7 +3899,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Pci_Pakkeforloeb</t>
+          <t>Kag_KagKonsekvens</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3916,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "stabil_angina_pectoris" | "uap_nstemi" | "hjertesvigt" | "hjerteklapsygdom" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ingen_behandling" | "operation" | "hjertekonference" | "ad_hoc_pci" | "elektiv_pci" | "medicinsk_behandling" | </t>
         </is>
       </c>
     </row>
@@ -3943,7 +3928,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_ClosureDevice</t>
+          <t>Ecpr_HS_icu</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3940,12 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3967,24 +3957,24 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_AmkomstPCIcenter</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_RenalImpairment</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="D245" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "normal" | "moderat" | "svaer" | "dialyse" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -3996,7 +3986,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Ecpr_AnamneseDialyse</t>
+          <t>Pci_Procedurekode1</t>
         </is>
       </c>
     </row>
@@ -4008,12 +3998,17 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -4025,7 +4020,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagIndstiksrelaterede_Pseudoaneurysme</t>
+          <t>Kag_HenvistHjertekonference</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4037,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -4054,7 +4049,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>PciSegmentList_Stenosegrad</t>
+          <t>Kag_FrailtyScore</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4066,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Less than or equal to: 100 | Greater than or equal to: 0</t>
+          <t>Less than or equal to: 9 | Greater than or equal to: 1</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4078,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_AkutCabg</t>
+          <t>Ecpr_HS_komp_haemolyse</t>
         </is>
       </c>
     </row>
@@ -4112,7 +4107,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_DiagnostikVisitation</t>
+          <t>Kag_SyntaxScore</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4124,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "praeh_diag_direkte_til_pci_center" | "praeh_diag__omkring_lokalsygehus" | "diagnose_paa_lokalsygehus" | "overflyttet" | "diagnose_efter_indl__pci_center" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "lav" | "medium" | "hoej" | </t>
         </is>
       </c>
     </row>
@@ -4141,24 +4136,24 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_Debuttidspunkt</t>
+          <t>Pci_Pakkeforloeb</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="D257" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "stabil_angina_pectoris" | "uap_nstemi" | "hjertesvigt" | "hjerteklapsygdom" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -4170,7 +4165,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_ADPantagonist</t>
+          <t>Ecpr_HS_bt_sys</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4177,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "clopidogrel" | "ticagrelor" | "prasugrel" | "cangrelor" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -4199,24 +4189,24 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_AkutPci</t>
+          <t>Pci_HenvisningsDato</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="D261" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4218,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_ForhoejedeIskaemimarkoerer</t>
+          <t>Ecpr_HS_ph_ank_lab</t>
         </is>
       </c>
     </row>
@@ -4240,12 +4230,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4242,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_AnamneseIHSIFamilien</t>
+          <t>Kir_KirKomplikationer_CentralNerveskade</t>
         </is>
       </c>
     </row>
@@ -4286,24 +4271,24 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_AnamneseDatoTidspunkt</t>
+          <t>Ecpr_HS_imp_kanyl</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="D267" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "femoralis" | "subclavia" | "transthorakal" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -4315,7 +4300,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_KateterInd</t>
+          <t>Pci_ProcedureDato</t>
         </is>
       </c>
     </row>
@@ -4335,6 +4320,11 @@
           <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -4344,7 +4334,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_AmiProcedurerelateret</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_UstabilAngina</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4363,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_ArterielAdgang</t>
+          <t>Pci_PciIndikation</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4380,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "radialis_dxt_sin" | "ulnaris_dxt_sin" | "brachialis_dxt_sin" | "femoralis_dxt_sin" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "stemi_primaer_pci" | "stemi_akut_pci_over_12_timer" | "stemi_rescue_pci" | "stemi_faciliteret_primaer_pci" | "stemi_stabiliseret_over_12_timer" | "n_stemi_ikke_stabiliseret" | "n_stemi_stabiliseret" | "uap_ikke_stabiliseret" | "uap_stabiliseret" | "arytmi" | "klapsygdom_incl_endocarditis" | "kardiomyopati_uafklaret_hjerteinsufficiens" | "stabil_ap_og_eller_dokumenteret_iskaemi_tavs_iskaemi" | "kompletterende_pci_efter_pci_for_n_stemi" | "kompletterende_pci_efter_pci_for_stemi" | "kompletterende_pci_efter_pci_for_stabil_ap" | "kompletterende_pci_efter_cabg" | "komplikation_efter_kag" | "komplikation_efter_pci" | "komplikation_efter_cabg" | "institio" | "udredning_foer_anden_stoerre_ikke_kardiel_operation" | "kardiogent_shock" | "andet" | </t>
         </is>
       </c>
     </row>
@@ -4402,24 +4392,24 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_IntrakranialBloedning</t>
+          <t>Ecpr_HS_afem_bypass_tid</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="D275" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -4431,24 +4421,24 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_RetroperitonealBloedning</t>
+          <t>Pci_IndlaeggelsesDato</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="D277" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4450,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_AndenStoerreBloedning</t>
+          <t>Pci_Henvisningsmaade</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4467,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "akut" | "subakut" | "elektiv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -4489,7 +4479,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Pci_PciProcedurerelateretKomplikationer_Arytmi</t>
+          <t>Pci_Henvisningsdiagnose</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4491,12 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "af" | "blok" | "vfvt" | "andet" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -4518,7 +4508,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_TilkommetDialysekrav</t>
+          <t>Pci_Procedurekode2</t>
         </is>
       </c>
     </row>
@@ -4530,12 +4520,12 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4537,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Kag_KagPrognostiskeFaktorer_Vaegt</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_TidligereHjertekirurgi</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4549,12 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Less than or equal to: 250 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -4576,7 +4566,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Kag_KagPrognostiskeFaktorer_Hoejde</t>
+          <t>Pci_PciKomplikationer_PciIndstiksrelaterede_Haematom</t>
         </is>
       </c>
     </row>
@@ -4588,12 +4578,12 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Less than or equal to: 230 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "stoerre_end_5x5_cm" | "stoerre_end_10x10_cm" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -4605,7 +4595,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Kag_KagPrognostiskeFaktorer_Rygning</t>
+          <t>Kag_KagProcedurevariable_AntalSygeKar</t>
         </is>
       </c>
     </row>
@@ -4617,12 +4607,12 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str/int, Enum</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "aldrig" | "ophoert" | "aktiv" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | 0 | 1 | 2 | 3 | "diffus" | </t>
         </is>
       </c>
     </row>
@@ -4634,7 +4624,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Kag_KagPrognostiskeFaktorer_Diabetes</t>
+          <t>Ecpr_HS_laktat_ank_lab</t>
         </is>
       </c>
     </row>
@@ -4646,12 +4636,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja_non_farmakologisk_behandling" | "ja_insulinbehandling" | "ja_nydiagnosticeret" | "ja_non_insulin_farmakologisk_behandling" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4648,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_AllergiskReaktionSentIndtraeffende</t>
+          <t>Kag_KagPrognostiskeFaktorer_Hoejde</t>
         </is>
       </c>
     </row>
@@ -4675,12 +4660,12 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 230 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -4692,19 +4677,24 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_InvasivtBT_Systolisk</t>
+          <t>Ecpr_HS_icu_ind_tid</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="D295" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4706,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_AnamneseBT_Systolisk</t>
+          <t>Kag_KagPrognostiskeFaktorer_Vaegt</t>
         </is>
       </c>
     </row>
@@ -4731,6 +4721,11 @@
           <t>Integer</t>
         </is>
       </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Less than or equal to: 250 | Greater than or equal to: 0</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -4740,7 +4735,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>KagSegment_Segment</t>
+          <t>Kag_KagProcedurevariable_InvasivtBT_Systolisk</t>
         </is>
       </c>
     </row>
@@ -4755,11 +4750,6 @@
           <t>Integer</t>
         </is>
       </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>Less than or equal to: 16 | Greater than or equal to: 1</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -4769,7 +4759,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_AnamneseBT_Diastolisk</t>
+          <t>Ecpr_HS_noflow</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4783,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>KagSegment_SegmentType</t>
+          <t>Kag_KagProcedurevariable_KagKontrastFabrikat</t>
         </is>
       </c>
     </row>
@@ -4810,7 +4800,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nativ" | "lima" | "rima" | "radialis" | "vg" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "hexabrix" | "iomeron" | "omnipaque" | "visipaque" | "andet" | "ultravist" | </t>
         </is>
       </c>
     </row>
@@ -4822,7 +4812,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_FirstMedicalContact</t>
+          <t>Kag_KagAnamnese_AnamneseDatoTidspunkt</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4841,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Pci_PciProcedurerelateretKomplikationer_KateterinduceretDissektion</t>
+          <t>Ecpr_HS_vaecmo_kan_teknik</t>
         </is>
       </c>
     </row>
@@ -4868,7 +4858,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "seldinger" | "cutdown" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -4880,7 +4870,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Kag_KagAnamnese_Komplikation</t>
+          <t>Kag_KagAnamnese_AnamneseIHSIFamilien</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4887,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ingen" | "mitralinsufficiens" | "vsd" | "frivaegsruptur" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -4909,24 +4899,24 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagIndstiksrelaterede_LukkedeviceBetingetKomplBehovForKirurgi</t>
+          <t>Ecpr_HS_vaecmo_afv_tid</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="D311" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -4938,24 +4928,24 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_AnaestesiAssistance</t>
+          <t>Kag_KagProcedurevariable_KateterUd</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="D313" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -4967,24 +4957,24 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Kag_StentTrombose</t>
+          <t>Kag_KagProcedurevariable_KateterInd</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="D315" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4986,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ecpr_Hoejde</t>
+          <t>Kag_KagAnamnese_AnamneseBT_Systolisk</t>
         </is>
       </c>
     </row>
@@ -5011,11 +5001,6 @@
           <t>Integer</t>
         </is>
       </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>Less than or equal to: 230 | Greater than or equal to: 0</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -5025,7 +5010,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Kag_KoronarPatologiNativeKar</t>
+          <t>Kag_KagAnamnese_AnamneseBT_Diastolisk</t>
         </is>
       </c>
     </row>
@@ -5037,12 +5022,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ingen_vaegforandringer" | "ateromatose_uden_signifikante_stenoser" | "foerste_gebet" | "andet_gebet" | "tredje_gebet" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -5054,7 +5034,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Ecpr_Diabetes</t>
+          <t>Ecpr_HS_komp_apo</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5051,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja_non_farmakologisk_behandling" | "ja_insulinbehandling" | "ja_nydiagnosticeret" | "ja_non_insulin_farmakologisk_behandling" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -5083,24 +5063,24 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagIndstiksrelaterede_BloedningBehovForKirurgi</t>
+          <t>Kag_KagAnamnese_Debuttidspunkt</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="D323" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5092,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagIndstiksrelaterede_Haematom</t>
+          <t>Kag_KagAnamnese_DiagnostikVisitation</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5109,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "stoerre_end_5x5_cm" | "stoerre_end_10x10_cm" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "praeh_diag_direkte_til_pci_center" | "praeh_diag__omkring_lokalsygehus" | "diagnose_paa_lokalsygehus" | "overflyttet" | "diagnose_efter_indl__pci_center" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -5141,7 +5121,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Ecpr_Vaegt</t>
+          <t>Ecpr_HS_etco2_ank_lab</t>
         </is>
       </c>
     </row>
@@ -5156,11 +5136,6 @@
           <t>Integer</t>
         </is>
       </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>Less than or equal to: 250 | Greater than or equal to: 0</t>
-        </is>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -5170,24 +5145,24 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Kag_KoronarPatologiTidligereCabg</t>
+          <t>Kag_KagAnamnese_FirstMedicalContact</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="D329" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ateromatose_uden_signifikante_stenoser" | "foerste_gebet" | "andet_gebet" | "tredje_gebet" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5174,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_TaviProtesePatientMismatch</t>
+          <t>Ecpr_HS_ekko_bev</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5191,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "insignifikant" | "moderat" | "svaer" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -5228,7 +5203,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_AkutPciProcedureinduceret</t>
+          <t>Kag_KagAnamnese_CCS</t>
         </is>
       </c>
     </row>
@@ -5245,7 +5220,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "i" | "ii" | "iii" | "iv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -5257,7 +5232,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_MorsInTabula</t>
+          <t>Ecpr_HS_afem_bypass_str</t>
         </is>
       </c>
     </row>
@@ -5269,12 +5244,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5256,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_Institio</t>
+          <t>Kag_KagAnamnese_Henvendelsesmoenster</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5273,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "transporteret_med_ambulance_til_hospital" | "selvhenvender" | "transporteret_med_helikopter" | </t>
         </is>
       </c>
     </row>
@@ -5315,7 +5285,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>PciSegmentList_PciStenttype</t>
+          <t>Kag_KagAnamnese_Killip</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5302,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "des" | "bms" | "brs" | "cov" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "i" | "ii" | "iii" | "iv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -5344,24 +5314,24 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_AkutCabgProcedureinduceret</t>
+          <t>Kag_KagAnamnese_AnkomstKardLab</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="D341" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5343,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>PciSegmentList_Ve_Hovedstamme_LM</t>
+          <t>Ecpr_HS_kat_str_v</t>
         </is>
       </c>
     </row>
@@ -5385,12 +5355,12 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja_beskyttet" | "ja_ubeskyttet" | </t>
+          <t>Less than or equal to: 26 | Greater than or equal to: 18</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5372,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_NoFlowSlowFlow</t>
+          <t>Kag_KagAnamnese_Lokalisation</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5389,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "post" | "inf" | "grenblok" | "ef_klassificerbar" | "ant" | </t>
         </is>
       </c>
     </row>
@@ -5431,24 +5401,24 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Ecpr_AnamneseEF</t>
+          <t>Kag_KagAnamnese_AmkomstPCIcenter</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="D347" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>Less than or equal to: 100 | Greater than or equal to: 0</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5430,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_DistalEmbolisering</t>
+          <t>Kag_KagAnamnese_Komplikation</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5447,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ingen" | "mitralinsufficiens" | "vsd" | "frivaegsruptur" | </t>
         </is>
       </c>
     </row>
@@ -5489,7 +5459,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Pci_PciProcedureVariable_Bivalirudin</t>
+          <t>Kag_KagProcedurevariable_ArterielAdgang</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5476,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "radialis_dxt_sin" | "ulnaris_dxt_sin" | "brachialis_dxt_sin" | "femoralis_dxt_sin" | </t>
         </is>
       </c>
     </row>
@@ -5518,7 +5488,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_PeriproceduralPacing</t>
+          <t>Kag_KagProcedurevariable_Ultralyd</t>
         </is>
       </c>
     </row>
@@ -5535,7 +5505,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -5547,7 +5517,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_AkutNyreinsufficiens</t>
+          <t>Kag_KagProcedurevariable_InvasivtBT_Diastolisk</t>
         </is>
       </c>
     </row>
@@ -5559,12 +5529,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G355" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "stadie_1" | "stadie_2" | "stadie_3" | "uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5541,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>PciSegmentList_Synlig_kalcifikation</t>
+          <t>Kag_KagProcedurevariable_Puls</t>
         </is>
       </c>
     </row>
@@ -5588,12 +5553,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5565,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_DcKonvertering</t>
+          <t>Kag_KagPrognostiskeFaktorer_Rygning</t>
         </is>
       </c>
     </row>
@@ -5622,7 +5582,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "aldrig" | "ophoert" | "aktiv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -5634,7 +5594,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_StrokeUnder12TimerEfterProcedure</t>
+          <t>Ecpr_HS_lvef</t>
         </is>
       </c>
     </row>
@@ -5646,12 +5606,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -5663,7 +5618,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>PciSegmentList_Synlig_trombe</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_Tamponade</t>
         </is>
       </c>
     </row>
@@ -5680,7 +5635,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -5692,7 +5647,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_KontrastReaktion</t>
+          <t>Ecpr_HS_vaecmo_afv</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5676,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>PciSegmentList_By_pass_graft</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_KardiogentShockProcInduceret</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5693,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -5750,7 +5705,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_KardiogentShockProcInduceret</t>
+          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_TilkommetDialysekrav</t>
         </is>
       </c>
     </row>
@@ -5779,24 +5734,24 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_ProteseKlapareal</t>
+          <t>Ecpr_HS_hlr_start</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="D371" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>Less than or equal to: 10 | Greater than or equal to: 0</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5763,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_Tamponade</t>
+          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_AndenStoerreBloedning</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5792,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_RespInsufficiensRespiratorkraevende</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_KontrastReaktion</t>
         </is>
       </c>
     </row>
@@ -5866,24 +5821,24 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Ecpr_AnamneseDatoTidspunkt</t>
+          <t>Ecpr_HS_eCPR_nej</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="D377" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "patient_stabiliseret___ikke_behov" | "pea_asystoli" | "_lang_ukendt_no_flow" | "lang_ukendt_low_flow" | "lav_endtidal_co2" | "lav_ph" | "hoej_laktat" | "komorbiditet" | "hoej_alder" | "ubevidnet_hjertestop" | "rosc_ikke_opnaaet" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -5895,7 +5850,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_Haematom</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_StrokeUnder12TimerEfterProcedure</t>
         </is>
       </c>
     </row>
@@ -5912,7 +5867,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "stoerre_end_5x5_cm" | "stoerre_end_10x10_cm" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -5924,7 +5879,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagPeriprocedurale_Andet</t>
+          <t>Ecpr_HS_Ino_Type_Dobutamin</t>
         </is>
       </c>
     </row>
@@ -5936,12 +5891,12 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>Maximum length: 100 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -5953,7 +5908,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_TaviProteseInsufficiensType</t>
+          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_AmiProcedurerelateret</t>
         </is>
       </c>
     </row>
@@ -5970,7 +5925,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "paravalvulaer" | "central" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -5982,7 +5937,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagIndstiksrelaterede_BloedningBehovForTransfusion</t>
+          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_ForhoejedeIskaemimarkoerer</t>
         </is>
       </c>
     </row>
@@ -6011,7 +5966,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_TaviProteseInsufficiensGrad</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_Institio</t>
         </is>
       </c>
     </row>
@@ -6028,7 +5983,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ingen" | "mild" | "moderat" | "svaer" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6040,7 +5995,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Kag_KagKomplikationer_KagIndstiksrelaterede_ArterielOkklusionDissektionBehovForKirurgi</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_MorsInTabula</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6024,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>PciSegmentList_Aortoostial_laesion</t>
+          <t>Ecpr_HS_kompl</t>
         </is>
       </c>
     </row>
@@ -6086,7 +6041,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6098,7 +6053,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Kag_Hovedstammestenose</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_Haematom</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6070,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "ubeskyttet" | "beskyttet" | "aekvivalent" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "stoerre_end_5x5_cm" | "stoerre_end_10x10_cm" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6127,7 +6082,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>PciSegmentList_Last_remaining_vessel</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_Andet</t>
         </is>
       </c>
     </row>
@@ -6139,12 +6094,12 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Maximum length: 100 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -6156,24 +6111,24 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>KagSegment_Stenosegrad</t>
+          <t>Ecpr_HS_ankomst_lab_tid</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="D397" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>Less than or equal to: 100 | Greater than or equal to: 0</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6140,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Kag_KagIndikation</t>
+          <t>Kag_KagKomplikationer_KagIndstiksrelaterede_Haematom</t>
         </is>
       </c>
     </row>
@@ -6202,7 +6157,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "stemi_primaer_pci" | "stemi_akut_pci_over_12_timer" | "stemi_rescue_pci" | "stemi_faciliteret_primaer_pci" | "stemi_stabiliseret_over_12_timer" | "n_stemi_ikke_stabiliseret" | "n_stemi_stabiliseret" | "uap_ikke_stabiliseret" | "uap_stabiliseret" | "arytmi" | "klap_og_eller_aortasygdom" | "kardiomyopati_uafklaret_hjerteinsufficiens" | "kontrol_efter_pci" | "kontrol_efter_cabg" | "kontrol_efter_htx" | "komplikationer_efter_kag" | "komplikationer_efter_pci" | "komplikation_efter_kag" | "post_infarkt_vsd" | "institio" | "uafklarede_brystsmerter" | "udredning_foer_anden_stoerre_ikke_kardiel_operation" | "andet" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "stoerre_end_5x5_cm" | "stoerre_end_10x10_cm" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6214,7 +6169,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Kag_Gennemlysningstid</t>
+          <t>Ecpr_HS_livstegn_lab</t>
         </is>
       </c>
     </row>
@@ -6226,12 +6181,12 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>Less than or equal to: 120 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "ikke_hlr_ophoert_behandling" | "ikke_relevant_rosc" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6243,7 +6198,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Kag_KateterStoerrelse</t>
+          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_AkutPci</t>
         </is>
       </c>
     </row>
@@ -6255,12 +6210,12 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>Less than or equal to: 12 | Greater than or equal to: 2</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6272,7 +6227,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>PciSegmentList_PciSaerligtUdstyr</t>
+          <t>Ecpr_HS_vaecmo_kan_ul</t>
         </is>
       </c>
     </row>
@@ -6289,7 +6244,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "rotablation" | "lithytrypsi__shockwave_" | "laser_atherectomi" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6301,29 +6256,24 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Kag_ProcedureDato</t>
+          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_AkutCabg</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="D407" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6335,7 +6285,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_TaviRytmeforstyrrelser_Atrieflimmer</t>
+          <t>Kag_KagKomplikationer_KagIndstiksrelaterede_Pseudoaneurysme</t>
         </is>
       </c>
     </row>
@@ -6364,7 +6314,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_TaviRytmeforstyrrelser_AVBlok</t>
+          <t>Kag_KagKomplikationer_KagIndstiksrelaterede_LukkedeviceBetingetKomplBehovForKirurgi</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6343,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Kir_ProcedureKode4</t>
+          <t>Ecpr_HS_vaecmo_kanyl</t>
         </is>
       </c>
     </row>
@@ -6405,12 +6355,12 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "perifer" | "central" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6422,7 +6372,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_AMIUnder72timer</t>
+          <t>Kag_KagKomplikationer_KagIndstiksrelaterede_ArterielOkklusionDissektionBehovForKirurgi</t>
         </is>
       </c>
     </row>
@@ -6439,7 +6389,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "usikkert" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6451,7 +6401,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_TaviRytmeforstyrrelser_VFVT</t>
+          <t>Kag_KagKomplikationer_KagIndstiksrelaterede_BloedningBehovForTransfusion</t>
         </is>
       </c>
     </row>
@@ -6480,7 +6430,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Kag_Procedurekode1</t>
+          <t>Kag_KagKomplikationer_KagIndstiksrelaterede_BloedningBehovForKirurgi</t>
         </is>
       </c>
     </row>
@@ -6492,17 +6442,12 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
-        </is>
-      </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6514,7 +6459,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_TaviRytmeforstyrrelser_AndenRytmeforstyrrelse</t>
+          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_IntrakranialBloedning</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6488,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Kag_Procedurekode2</t>
+          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_RetroperitonealBloedning</t>
         </is>
       </c>
     </row>
@@ -6555,12 +6500,12 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6572,7 +6517,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_Sentamponade</t>
+          <t>Kag_KagKomplikationer_KagUnderIndlaeggelse_AllergiskReaktionSentIndtraeffende</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6546,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Kag_Procedurekode5</t>
+          <t>Kag_KagPrognostiskeFaktorer_Diabetes</t>
         </is>
       </c>
     </row>
@@ -6613,12 +6558,12 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja_non_farmakologisk_behandling" | "ja_insulinbehandling" | "ja_nydiagnosticeret" | "ja_non_insulin_farmakologisk_behandling" | </t>
         </is>
       </c>
     </row>
@@ -6630,7 +6575,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_BloedningInterventionskraevende</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_RespInsufficiensRespiratorkraevende</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6592,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja_livstruende_bloedning" | "ja_stoerre_bloedning" | "ja_mindre_bloedning" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6659,7 +6604,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_TransfusionBlodML</t>
+          <t>Ecpr_HS_rytme_ank_lab</t>
         </is>
       </c>
     </row>
@@ -6671,12 +6616,12 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>Less than or equal to: 10000 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "vf" | "vt" | "pea" | "asystoli" | "afli_afla_svt" | "av_blok_2_3" | "sinusrytme" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6688,24 +6633,24 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Kag_Procedurekode3</t>
+          <t>Kag_IndlaeggelsesDato</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="D433" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6662,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_KonverteringTilKirurgi</t>
+          <t>Ecpr_HS_Ino_Type_Milrinone</t>
         </is>
       </c>
     </row>
@@ -6746,7 +6691,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Kag_Procedurekode4</t>
+          <t>Kag_KagIndikation</t>
         </is>
       </c>
     </row>
@@ -6758,12 +6703,12 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "stemi_primaer_pci" | "stemi_akut_pci_over_12_timer" | "stemi_rescue_pci" | "stemi_faciliteret_primaer_pci" | "stemi_stabiliseret_over_12_timer" | "n_stemi_ikke_stabiliseret" | "n_stemi_stabiliseret" | "uap_ikke_stabiliseret" | "uap_stabiliseret" | "arytmi" | "klap_og_eller_aortasygdom" | "kardiomyopati_uafklaret_hjerteinsufficiens" | "kontrol_efter_pci" | "kontrol_efter_cabg" | "kontrol_efter_htx" | "komplikationer_efter_kag" | "komplikationer_efter_pci" | "komplikation_efter_kag" | "post_infarkt_vsd" | "institio" | "uafklarede_brystsmerter" | "udredning_foer_anden_stoerre_ikke_kardiel_operation" | "andet" | </t>
         </is>
       </c>
     </row>
@@ -6775,7 +6720,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_AarsagProteserOver1</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_DistalEmbolisering</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6737,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "inappropiate_positioning" | "under_or_oversized" | "valve_embolisation" | "valve_malfunction" | "others" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6804,29 +6749,24 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Kir_ProcedureDato</t>
+          <t>Ecpr_HS_hlr_sundhedsperson</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="D441" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6838,7 +6778,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Pci_Lvef</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_NoFlowSlowFlow</t>
         </is>
       </c>
     </row>
@@ -6850,12 +6790,12 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>Less than or equal to: 100 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -6867,19 +6807,29 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_IndlaeggelsestidDage</t>
+          <t>Kag_ProcedureDato</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="D445" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -6891,7 +6841,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Kag_Roentgenstraaledosis</t>
+          <t>Ecpr_HS_amio_lab</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6858,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>Less than or equal to: 1000 | Greater than or equal to: 0</t>
+          <t>Less than or equal to: 1200 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6870,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Kag_Kontrastmaengde</t>
+          <t>Kag_Procedurekode1</t>
         </is>
       </c>
     </row>
@@ -6932,12 +6882,17 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>Less than or equal to: 1000 | Greater than or equal to: 0</t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6904,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_AktivEndokardit</t>
+          <t>Ecpr_HS_komp_devicefail</t>
         </is>
       </c>
     </row>
@@ -6978,7 +6933,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_TidligereHjertekirurgi</t>
+          <t>Kag_KoronarPatologiTidligereCabg</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6950,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ateromatose_uden_signifikante_stenoser" | "foerste_gebet" | "andet_gebet" | "tredje_gebet" | </t>
         </is>
       </c>
     </row>
@@ -7007,7 +6962,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>PciSegmentList_Direkte_stentning</t>
+          <t>Kag_KoronarPatologiNativeKar</t>
         </is>
       </c>
     </row>
@@ -7024,7 +6979,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ingen_vaegforandringer" | "ateromatose_uden_signifikante_stenoser" | "foerste_gebet" | "andet_gebet" | "tredje_gebet" | </t>
         </is>
       </c>
     </row>
@@ -7036,7 +6991,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Kag_Henvisningsmaade</t>
+          <t>Kag_Procedurekode2</t>
         </is>
       </c>
     </row>
@@ -7048,12 +7003,12 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "akut" | "subakut" | "elektiv" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7020,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Kag_Henvisningsdiagnose</t>
+          <t>Kag_Procedurekode3</t>
         </is>
       </c>
     </row>
@@ -7094,24 +7049,24 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_SerumKreatininOver200</t>
+          <t>Ecpr_HS_imp_tid</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="D461" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -7123,7 +7078,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>TAVI_TaviPostProcedureData_TaviProteseStenose</t>
+          <t>Kag_Procedurekode4</t>
         </is>
       </c>
     </row>
@@ -7135,12 +7090,12 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "normal" | "mild" | "svaer" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -7152,7 +7107,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_CerebrovaskulaerSygdom</t>
+          <t>Kag_Procedurekode5</t>
         </is>
       </c>
     </row>
@@ -7164,12 +7119,12 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7136,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>PciSegmentList_PciIntervention</t>
+          <t>Ecpr_HS_aarsag_hjstop</t>
         </is>
       </c>
     </row>
@@ -7198,7 +7153,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "stent" | "poba__non_deb_" | "poba__deb_" | "anden_intervention" | "mislykket" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "kardiel" | "traume" | "drukning" | "respiratorisk" | "tosisk" | "cerebral" | "gastrointestinal_bloedning" | "elektroforstyrrelse" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7210,7 +7165,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_AkutOperation</t>
+          <t>Ecpr_HS_aarsag_kardiel</t>
         </is>
       </c>
     </row>
@@ -7227,7 +7182,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | "elektiv" | "subakut" | "akut" | "vital_indikation" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "akut_myokardi_infarkt" | "lungeemboli" | "primaer_arytmi" | "tamponade" | "aortadissektion" | "myokardit" | "kronisk_hjertesvigt" | "andet" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7239,7 +7194,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_TamponadeUnderProceduren</t>
+          <t>Kag_StentTrombose</t>
         </is>
       </c>
     </row>
@@ -7268,24 +7223,24 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_KirurgiPaaAortaThoracalis</t>
+          <t>Ecpr_HS_vaecmo_tid</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="D473" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7252,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_Operatoer1</t>
+          <t>Kag_Hovedstammestenose</t>
         </is>
       </c>
     </row>
@@ -7314,7 +7269,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "kardiolog" | "thoraxkirurg" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "ubeskyttet" | "beskyttet" | "aekvivalent" | </t>
         </is>
       </c>
     </row>
@@ -7326,7 +7281,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_EkstrakardielArteriesygdom</t>
+          <t>Kag_Kontrastmaengde</t>
         </is>
       </c>
     </row>
@@ -7338,12 +7293,12 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 1000 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7310,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_Operatoer2</t>
+          <t>Kag_Roentgenstraaledosis</t>
         </is>
       </c>
     </row>
@@ -7367,12 +7322,12 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "kardiolog" | "thoraxkirurg" | </t>
+          <t>Less than or equal to: 1000 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -7384,24 +7339,24 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Kir_IndlaeggelsesDato</t>
+          <t>Ecpr_HS_eCPR</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="D481" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ikke_etableret" | "va_ecmo" | "impella" | "va_ecmo_impella" | "ukendt" | </t>
         </is>
       </c>
     </row>
@@ -7413,7 +7368,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_AntalKlapproteser</t>
+          <t>Kag_Gennemlysningstid</t>
         </is>
       </c>
     </row>
@@ -7430,7 +7385,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>Less than or equal to: 9 | Greater than or equal to: 0</t>
+          <t>Less than or equal to: 120 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -7442,7 +7397,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>PciSegmentList_Stentlaengde</t>
+          <t>Kag_KateterStoerrelse</t>
         </is>
       </c>
     </row>
@@ -7457,6 +7412,11 @@
           <t>Integer</t>
         </is>
       </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Less than or equal to: 12 | Greater than or equal to: 2</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -7466,7 +7426,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_VenstreVentrikelDysfunktio</t>
+          <t>Pci_Lvef</t>
         </is>
       </c>
     </row>
@@ -7478,12 +7438,12 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "svaert_nedsat" | "nedsat" | "moderat" | "normal" | "uoplyst" | </t>
+          <t>Less than or equal to: 100 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7455,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_ProcedureKode</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_AkutPciProcedureinduceret</t>
         </is>
       </c>
     </row>
@@ -7507,17 +7467,12 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
-        </is>
-      </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7529,7 +7484,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_TaviAnaestesi</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_AkutCabgProcedureinduceret</t>
         </is>
       </c>
     </row>
@@ -7546,7 +7501,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ga" | "sedation_og_la" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7558,7 +7513,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_HjertekirurgiUdOverCabg</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_PeriproceduralPacing</t>
         </is>
       </c>
     </row>
@@ -7575,7 +7530,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | "isoleret_cabg" | "single_non_cabg" | "to_procedurer" | "tre_procedurer" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7587,7 +7542,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_Straaledosis</t>
+          <t>Kag_KagKomplikationer_KagPeriprocedurale_DcKonvertering</t>
         </is>
       </c>
     </row>
@@ -7599,12 +7554,12 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>Less than or equal to: 1000 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7616,7 +7571,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_PulmonalHypertension</t>
+          <t>Kag_Henvisningsmaade</t>
         </is>
       </c>
     </row>
@@ -7633,7 +7588,7 @@
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | "moderat" | "svaer" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "akut" | "subakut" | "elektiv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7645,7 +7600,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>PciSegmentList_Bifurkaturstentning</t>
+          <t>Ecpr_HSUnderIndlaeggelse</t>
         </is>
       </c>
     </row>
@@ -7662,7 +7617,7 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "1_stent" | "dk_crush" | "culotte" | "t_stent" | "tap_stent" | "andet" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7674,7 +7629,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_TaviAdgangsvej</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_VenstreVentrikelDysfunktio</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7646,7 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "hoejre_femoralis" | "venstre_femoralis" | "hoejre_subclavia" | "venstre_subclavia" | "direct_aorta" | "transapikalt" | "anden" | "hoejre_axilliaer" | "venstre_axilliaer" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "svaert_nedsat" | "nedsat" | "moderat" | "normal" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7703,7 +7658,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_TaviAdgangsvejMetode</t>
+          <t>Ecpr_HS_komp_karkir</t>
         </is>
       </c>
     </row>
@@ -7720,7 +7675,7 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "perkutan" | "kirurgisk_adgang" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7732,7 +7687,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_NyligtAmi</t>
+          <t>Kir_ProcedureKode7</t>
         </is>
       </c>
     </row>
@@ -7744,12 +7699,12 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -7761,7 +7716,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_TaviLukningAfAdgangsvej</t>
+          <t>Kag_Henvisningsdiagnose</t>
         </is>
       </c>
     </row>
@@ -7773,12 +7728,12 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "kirurgisk" | "lukkedevice" | "andet" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -7790,24 +7745,24 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Kag_Pakkeforloeb</t>
+          <t>Kag_HenvisningsDato</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="D509" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "stabil_angina_pectoris" | "uap_nstemi" | "hjertesvigt" | "hjerteklapsygdom" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -7819,7 +7774,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_ProcedurevarighedInMinutes</t>
+          <t>Ecpr_HS_adr_lab</t>
         </is>
       </c>
     </row>
@@ -7843,24 +7798,24 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Kag_HenvisningsDato</t>
+          <t>Ecpr_HS_komp_intrakranbloed</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="D513" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7872,7 +7827,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_TaviKlaptype</t>
+          <t>Kag_Pakkeforloeb</t>
         </is>
       </c>
     </row>
@@ -7889,7 +7844,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "corevalve" | "edwards" | "edwards_s3" | "edwards_xt" | "edwards_ultra" | "portico" | "symetis" | "evolute" | "evolute_pro" | "jena" | "lotus" | "centera" | "myval" | "navitor" | "accurate_neo_2" | "andet" | "ingen_klap" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "stabil_angina_pectoris" | "uap_nstemi" | "hjertesvigt" | "hjerteklapsygdom" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7901,24 +7856,24 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Kag_IndlaeggelsesDato</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_PostinfarktVsd</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="D517" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7930,7 +7885,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_Kontrastmaengde</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_NyligtAmi</t>
         </is>
       </c>
     </row>
@@ -7942,12 +7897,12 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>Less than or equal to: 1000 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -7959,7 +7914,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_PostinfarktVsd</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_PulmonalHypertension</t>
         </is>
       </c>
     </row>
@@ -7976,7 +7931,7 @@
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | "moderat" | "svaer" | </t>
         </is>
       </c>
     </row>
@@ -7988,7 +7943,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>PciSegmentList_Bifurkaturstentning_MedBallon</t>
+          <t>Ecpr_HS_kat_str_a</t>
         </is>
       </c>
     </row>
@@ -8000,12 +7955,12 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Less than or equal to: 26 | Greater than or equal to: 18</t>
         </is>
       </c>
     </row>
@@ -8017,7 +7972,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_UstabilAngina</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_AkutOperation</t>
         </is>
       </c>
     </row>
@@ -8034,7 +7989,7 @@
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | "elektiv" | "subakut" | "akut" | "vital_indikation" | </t>
         </is>
       </c>
     </row>
@@ -8046,7 +8001,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_PostdilationDiameterMM</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_HjertekirurgiUdOverCabg</t>
         </is>
       </c>
     </row>
@@ -8058,12 +8013,12 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 18 | Less than or equal to: 29</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | "isoleret_cabg" | "single_non_cabg" | "to_procedurer" | "tre_procedurer" | </t>
         </is>
       </c>
     </row>
@@ -8075,7 +8030,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_Postdilation</t>
+          <t>Ecpr_HS_rosc_ank_lab</t>
         </is>
       </c>
     </row>
@@ -8092,7 +8047,7 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "paagaaende_hlr" | "behandling_indstillet" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -8104,7 +8059,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_PraedilationDiameterMM</t>
+          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_KirurgiPaaAortaThoracalis</t>
         </is>
       </c>
     </row>
@@ -8116,12 +8071,12 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>Less than or equal to: 30 | Greater than or equal to: 18</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -8133,24 +8088,24 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_Hoejde</t>
+          <t>Ecpr_HS_rosc_tid</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="D533" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>Less than or equal to: 230 | Greater than or equal to: 0</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -8162,7 +8117,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_Praedilation</t>
+          <t>Ecpr_HS_Visitation</t>
         </is>
       </c>
     </row>
@@ -8179,7 +8134,7 @@
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ems_direkte_kard__lab" | "ems_afdeling_paa_center_foer_kard__lab" | "ems_lokal_sygehus___derefter_kard_lab" | "ems_lokal_sygehus___afdeling_center_foer_kard_lab" | "haendelse_opstaaet_efter_indlaeggelse" | "selvhenvender" | "ukendt_uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -8191,7 +8146,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_RenalImpairment</t>
+          <t>PciSegmentList_Synlig_trombe</t>
         </is>
       </c>
     </row>
@@ -8208,7 +8163,7 @@
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "normal" | "moderat" | "svaer" | "dialyse" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -8220,7 +8175,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_KlapstoerrelseMM</t>
+          <t>TAVI_TaviProcedureData_ProcedureKode</t>
         </is>
       </c>
     </row>
@@ -8232,12 +8187,17 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>Less than or equal to: 34 | Greater than or equal to: 16</t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8209,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>PciSegmentList_Stent_antal</t>
+          <t>PciSegmentList_Direkte_stentning</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8221,12 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -8273,7 +8238,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_TaviMekaniskSupport</t>
+          <t>Pci_PciProcedureVariable_Heparin</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8255,7 @@
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja_ikke_planlagt" | "ja_planlagt" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -8302,7 +8267,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_NYHA</t>
+          <t>Pci_PciProcedureVariable_Puls</t>
         </is>
       </c>
     </row>
@@ -8314,12 +8279,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "i" | "ii" | "iii" | "iv" | "uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -8331,7 +8291,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>PciSegmentList_Post_dilatation</t>
+          <t>Pci_PciProcedureVariable_InvasivtBT_Diastolisk</t>
         </is>
       </c>
     </row>
@@ -8343,12 +8303,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -8360,7 +8315,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_DiabetesInsulin</t>
+          <t>CtKag_Procedurekode1</t>
         </is>
       </c>
     </row>
@@ -8372,12 +8327,17 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -8389,7 +8349,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_Kontrasttype</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_NyligtAmi</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8361,12 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -8413,7 +8378,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Kir_KirKomplikationer_ReoperationForBloedning</t>
+          <t>Ecpr_HS_hlr_hjloeber</t>
         </is>
       </c>
     </row>
@@ -8442,29 +8407,24 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>TAVI_TaviProcedureData_ProcedureDato</t>
+          <t>Pci_PciProcedureVariable_GP3A2B</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="D555" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -8476,7 +8436,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Kir_ProcedureKode8</t>
+          <t>CtKag_CtKagProcedurevariable_CTKAGSublingualNitroglycerin</t>
         </is>
       </c>
     </row>
@@ -8488,12 +8448,12 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -8505,7 +8465,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_AorticAnnulusMetode</t>
+          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_IntrakranialBloedning</t>
         </is>
       </c>
     </row>
@@ -8522,7 +8482,7 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ekko" | "hjertect" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -8534,7 +8494,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_ArytmiDevice</t>
+          <t>Ecpr_AnamneseIHSIFamilien</t>
         </is>
       </c>
     </row>
@@ -8563,7 +8523,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Kir_KirKomplikationer_AmiUnderIndlaeggelsen</t>
+          <t>Ecpr_HS_bevidnet</t>
         </is>
       </c>
     </row>
@@ -8592,7 +8552,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_HjertekirurgiUdOverCABG</t>
+          <t>CtKag_Procedurekode2</t>
         </is>
       </c>
     </row>
@@ -8604,12 +8564,12 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "isoleret_cabg" | "single_non_cabg" | "to_procedurer" | "tre_procedurer" | "uoplyst" | </t>
+          <t>Maximum length: 7 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -8621,7 +8581,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Kir_ProcedureKode10</t>
+          <t>Pci_PciProcedureVariable_InvasivtBT_Systolisk</t>
         </is>
       </c>
     </row>
@@ -8633,12 +8593,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -8650,24 +8605,29 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_AkutKirurgiESII</t>
+          <t>Kir_ProcedureDato</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="D569" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "akut" | "vital_indikation" | "elektiv" | "subakut" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -8679,7 +8639,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_Vaegt</t>
+          <t>Pci_PciProcedureVariable_PCIKontrastFabrikat</t>
         </is>
       </c>
     </row>
@@ -8691,12 +8651,12 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>Less than or equal to: 250 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "hexabrix" | "iomeron" | "omnipaque" | "visipaque" | "andet" | "ultravist" | </t>
         </is>
       </c>
     </row>
@@ -8708,24 +8668,24 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_FEV1Procent</t>
+          <t>Ecpr_HS_ems_laege_ank</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="D573" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>Less than or equal to: 200 | Greater than or equal to: 0</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -8737,7 +8697,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_Diabetes</t>
+          <t>PciSegmentList_Max_ballontryk</t>
         </is>
       </c>
     </row>
@@ -8749,12 +8709,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja_non_farmakologisk_behandling" | "ja_insulinbehandling" | "ja_nydiagnosticeret" | "ja_non_insulin_farmakologisk_behandling" | </t>
+          <t>Float</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8721,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_FVCProcent</t>
+          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_AmiProcedurerelateret</t>
         </is>
       </c>
     </row>
@@ -8778,12 +8733,12 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>Less than or equal to: 200 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -8795,7 +8750,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_Rygning</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_NYHA</t>
         </is>
       </c>
     </row>
@@ -8812,7 +8767,7 @@
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "aldrig" | "ophoert" | "aktiv" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "i" | "ii" | "iii" | "iv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -8824,24 +8779,29 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_CCSKlasse4Angina</t>
+          <t>CtKag_ProcedureDato</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="D581" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8813,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Kag_Lvef</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_CCSKlasse4Angina</t>
         </is>
       </c>
     </row>
@@ -8865,12 +8825,12 @@
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>Less than or equal to: 100 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -8882,7 +8842,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_NYHA</t>
+          <t>PciSegmentList_pciCTO_antegrad_retrograd</t>
         </is>
       </c>
     </row>
@@ -8899,7 +8859,7 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "i" | "ii" | "iii" | "iv" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "antegrad" | "retrograd" | </t>
         </is>
       </c>
     </row>
@@ -8911,24 +8871,24 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Kir_KirKomplikationer_CentralNerveskade</t>
+          <t>Ecpr_AnamneseDatoTidspunkt</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="D587" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8900,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>TAVI_TaviProAktivEndokarditgnostiskeFaktorer_HenvistPgaPorcelaensaorta</t>
+          <t>Ecpr_Rygning</t>
         </is>
       </c>
     </row>
@@ -8957,7 +8917,7 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "aldrig" | "ophoert" | "aktiv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -8969,7 +8929,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_NedsatMobilitet</t>
+          <t>CtKag_RoentgenstraaledosisDLP</t>
         </is>
       </c>
     </row>
@@ -8981,12 +8941,12 @@
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 6000 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -8998,24 +8958,24 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>TAVI_TaviProAktivEndokarditgnostiskeFaktorer_Hoejde</t>
+          <t>CtKag_HenvisningsDato</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="D593" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>Less than or equal to: 230 | Greater than or equal to: 0</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -9027,24 +8987,24 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_CCSKlasse4Angina</t>
+          <t>Kir_IndlaeggelsesDato</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="D595" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -9056,7 +9016,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_Vaegt</t>
+          <t>PciSegmentList_PciBehandlingsresultat</t>
         </is>
       </c>
     </row>
@@ -9068,12 +9028,12 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>Less than or equal to: 250 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "vellykket" | "mislykket" | </t>
         </is>
       </c>
     </row>
@@ -9085,7 +9045,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_KroniskLungesygdom</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_VenstreVentrikelDysfunktionESII</t>
         </is>
       </c>
     </row>
@@ -9102,7 +9062,7 @@
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "svaert_nedsat" | "nedsat" | "moderat" | "normal" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -9114,7 +9074,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_KroniskLungesygdom</t>
+          <t>Pci_PciProcedureVariable_Ultralyd</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9091,7 @@
       </c>
       <c r="G601" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -9143,7 +9103,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Kir_KirPrognostiskeFaktorer_KirEuroSCORE_KritiskPraeoperativStatus</t>
+          <t>Ecpr_HS_byst_hlr</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9132,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_PeriferArterielKarsygdom</t>
+          <t>PciSegmentList_TIMI_flow_efter</t>
         </is>
       </c>
     </row>
@@ -9184,12 +9144,12 @@
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 3 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9161,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Kir_ProcedureKode5</t>
+          <t>PciSegmentList_Medina_klassifikation</t>
         </is>
       </c>
     </row>
@@ -9213,12 +9173,12 @@
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | 1_0_0 | 0_1_0 | 0_0_1 | 1_1_1 | 1_1_0 | 0_1_1 | 1_0_1 | </t>
         </is>
       </c>
     </row>
@@ -9230,7 +9190,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_DiabetesInsulin</t>
+          <t>CtKag_CtKagProcedurevariable_CTKAGKontrastmaengde</t>
         </is>
       </c>
     </row>
@@ -9242,12 +9202,7 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9214,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_KritiskPraeoperativStatus</t>
+          <t>CtKag_Henvisningsmaade</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9231,7 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "akut" | "subakut" | "elektiv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -9288,7 +9243,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_AktivEndokardit</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_KirurgiPaaAortaThoracalis</t>
         </is>
       </c>
     </row>
@@ -9317,7 +9272,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Kir_KirKomplikationer_DybSternuminfektion</t>
+          <t>Ecpr_HS_etco2_intub</t>
         </is>
       </c>
     </row>
@@ -9329,12 +9284,7 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -9346,7 +9296,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_NedsatNyrefunktion</t>
+          <t>CtKag_CtKagIndikation</t>
         </is>
       </c>
     </row>
@@ -9363,7 +9313,7 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "normal" | "moderat" | "svaer" | "dialyse" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "uafklarede_brystsmerter_aandenoed" | "fremstilling_koronar_bypass_grafter" | "fremstilling_anden_anatomi" | "kardiomyopati_uafklaret_hjerteinsufficiens" | "klap_og_eller_aortasygdom" | "andet" | </t>
         </is>
       </c>
     </row>
@@ -9375,7 +9325,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Kir_ProcedureKode3</t>
+          <t>Kir_ProcedureKode4</t>
         </is>
       </c>
     </row>
@@ -9404,7 +9354,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_SerumKreatininOver200</t>
+          <t>Pci_PciProcedureVariable_ArterielAdgang</t>
         </is>
       </c>
     </row>
@@ -9421,7 +9371,7 @@
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "radialis_dxt_sin" | "ulnaris_dxt_sin" | "brachialis_dxt_sin" | "femoralis_dxt_sin" | </t>
         </is>
       </c>
     </row>
@@ -9433,7 +9383,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Pci_PciAnamnese_AnkomstKardLab</t>
+          <t>Ecpr_HS_alarm_tidspunkt</t>
         </is>
       </c>
     </row>
@@ -9462,24 +9412,24 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_TidligereHjertekirurgi</t>
+          <t>Pci_PciProcedureVariable_KateterUd</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="D625" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9441,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_NedsatMobilitet</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_AktivEndokardit</t>
         </is>
       </c>
     </row>
@@ -9520,7 +9470,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_VenstreVentrikelDysfunktionESII</t>
+          <t>KagSegment_Segment</t>
         </is>
       </c>
     </row>
@@ -9532,12 +9482,12 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "svaert_nedsat" | "nedsat" | "moderat" | "normal" | "uoplyst" | </t>
+          <t>Less than or equal to: 16 | Greater than or equal to: 1</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9499,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Kir_ProcedureKode2</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_KritiskPraeoperativStatus</t>
         </is>
       </c>
     </row>
@@ -9561,12 +9511,12 @@
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -9578,7 +9528,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_NyligtAmi</t>
+          <t>TAVI_TaviPostProcedureData_TaviRytmeforstyrrelser_AndenRytmeforstyrrelse</t>
         </is>
       </c>
     </row>
@@ -9607,7 +9557,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_KirurgiPaaAortaThoracalis</t>
+          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_ForhoejedeIskaemimarkoerer</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9586,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_PostinfarktVSD</t>
+          <t>TAVI_TaviPostProcedureData_Sentamponade</t>
         </is>
       </c>
     </row>
@@ -9665,7 +9615,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_AorticAnnulusMM</t>
+          <t>PciSegmentList_By_pass_graft</t>
         </is>
       </c>
     </row>
@@ -9677,12 +9627,12 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>Less than or equal to: 40 | Greater than or equal to: 10</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -9694,7 +9644,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>CtKag_Procedurekode1</t>
+          <t>PciSegmentList_Segment</t>
         </is>
       </c>
     </row>
@@ -9706,17 +9656,12 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
-        </is>
-      </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Less than or equal to: 16 | Greater than or equal to: 1</t>
         </is>
       </c>
     </row>
@@ -9728,7 +9673,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>CtKag_Procedurekode2</t>
+          <t>PciSegmentList_PciStentFailure</t>
         </is>
       </c>
     </row>
@@ -9740,12 +9685,12 @@
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "stenttrombose" | "instent_restenose" | "non_instent_restenose__target_vessel_failure_" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -9757,7 +9702,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Kir_ProcedureKode1</t>
+          <t>Pci_PciAnamnese_Henvendelsesmoenster</t>
         </is>
       </c>
     </row>
@@ -9769,17 +9714,12 @@
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
-        </is>
-      </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "transporteret_med_ambulance_til_hospital" | "selvhenvender" | "transporteret_med_helikopter" | </t>
         </is>
       </c>
     </row>
@@ -9791,7 +9731,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_HenvistPgaPorcelaensaorta</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_DiabetesInsulin</t>
         </is>
       </c>
     </row>
@@ -9803,12 +9743,12 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>Less than or equal to: 100 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -9820,7 +9760,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Kir_ProcedureKode6</t>
+          <t>Pci_PciAnamnese_CCS</t>
         </is>
       </c>
     </row>
@@ -9832,12 +9772,12 @@
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "i" | "ii" | "iii" | "iv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -9849,24 +9789,24 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_PeakGradientPreMmHg</t>
+          <t>Ecpr_HS_hjstop_tid</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="D651" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>Less than or equal to: 200 | Greater than or equal to: 0</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -9878,7 +9818,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Kir_Hjertelungemaskine</t>
+          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_AkutPci</t>
         </is>
       </c>
     </row>
@@ -9907,7 +9847,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>CtKag_RoentgenstraaledosisDLP</t>
+          <t>CtKag_CtKagProcedurevariable_CTKAGCalciumscore</t>
         </is>
       </c>
     </row>
@@ -9924,7 +9864,7 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>Less than or equal to: 6000 | Greater than or equal to: 0</t>
+          <t>Less than or equal to: 10000</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9876,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Kir_ProcedureKode12</t>
+          <t>PciSegmentList_TIMI_flow_foer</t>
         </is>
       </c>
     </row>
@@ -9948,12 +9888,12 @@
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t>Less than or equal to: 3 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -9965,7 +9905,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>CtKag_EkstrakardielleForholdBeskrevet</t>
+          <t>TAVI_TaviProcedureData_Kontrastmaengde</t>
         </is>
       </c>
     </row>
@@ -9977,12 +9917,12 @@
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 1000 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -9994,24 +9934,24 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Kir_TidPaaIntensivITimer</t>
+          <t>Pci_PciProcedureVariable_KateterInd</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="D661" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>Less than or equal to: 4380 | Greater than or equal to: 0</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -10023,7 +9963,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>TAVI_Indlaeggelsesdiagnose</t>
+          <t>Ecpr_HS_adr_foer</t>
         </is>
       </c>
     </row>
@@ -10035,12 +9975,12 @@
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>Maximum length: 6 | Minimum length: 1</t>
+          <t>Less than or equal to: 10 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -10052,24 +9992,24 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>TAVI_HenvisningsDato</t>
+          <t>PciSegmentList_Synlig_kalcifikation</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="D665" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -10081,7 +10021,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>CtKag_Komplikationer</t>
+          <t>TAVI_TaviPostProcedureData_TaviProteseInsufficiensType</t>
         </is>
       </c>
     </row>
@@ -10098,7 +10038,7 @@
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "paravalvulaer" | "central" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -10110,7 +10050,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Kir_ProcedureKode9</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_TidligereHjertekirurgi</t>
         </is>
       </c>
     </row>
@@ -10122,12 +10062,12 @@
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -10139,7 +10079,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>CtKag_CtKagEvaluerbarUndersoegelse</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_SerumKreatininOver200</t>
         </is>
       </c>
     </row>
@@ -10156,7 +10096,7 @@
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "evaluerbar" | "delvis_evaluerbar" | "ikke_evaluerbar" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -10168,7 +10108,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Kir_ProcedureKode7</t>
+          <t>TAVI_TaviProcedureData_AarsagProteserOver1</t>
         </is>
       </c>
     </row>
@@ -10180,12 +10120,12 @@
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "inappropiate_positioning" | "under_or_oversized" | "valve_embolisation" | "valve_malfunction" | "others" | </t>
         </is>
       </c>
     </row>
@@ -10197,7 +10137,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>CtKag_CtKagKonsekvens</t>
+          <t>TAVI_TaviProcedureData_Straaledosis</t>
         </is>
       </c>
     </row>
@@ -10209,12 +10149,12 @@
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ingen_behandling" | "medicinsk_behandling" | "henvisning_invasiv_undersoegelse" | "henvisning_perfusions_funktionsundersoegelse" | "andet" | </t>
+          <t>Less than or equal to: 1000 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -10226,7 +10166,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>CtKag_Diabetes</t>
+          <t>PciSegmentList_Stent_antal</t>
         </is>
       </c>
     </row>
@@ -10238,12 +10178,7 @@
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja_non_farmakologisk_behandling" | "ja_insulinbehandling" | "ja_nydiagnosticeret" | "ja_non_insulin_farmakologisk_behandling" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10190,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Kir_ProcedureKode11</t>
+          <t>PciSegmentList_Stenosegrad_efter</t>
         </is>
       </c>
     </row>
@@ -10267,12 +10202,12 @@
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>Maximum length: 7 | Minimum length: 1</t>
+          <t>Less than or equal to: 100 | Greater than or equal to: 1</t>
         </is>
       </c>
     </row>
@@ -10284,7 +10219,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>CtKag_Rygning</t>
+          <t>PciSegmentList_Stenosegrad</t>
         </is>
       </c>
     </row>
@@ -10296,12 +10231,12 @@
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "aldrig" | "ophoert" | "aktiv" | "uoplyst" | </t>
+          <t>Less than or equal to: 100 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -10313,7 +10248,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>CtKag_CtKagProcedurevariable_CTKAGAntalSygeKar</t>
+          <t>Pci_PciAnamnese_Lokalisation</t>
         </is>
       </c>
     </row>
@@ -10330,7 +10265,7 @@
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "1_vd" | "2_vd" | "3_vd" | "diffus_sygdom_uden_signifikante_stenoser" | "afsluttet_efter_calcium_score" | "0_vd" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "post" | "inf" | "grenblok" | "ef_klassificerbar" | "ant" | </t>
         </is>
       </c>
     </row>
@@ -10342,7 +10277,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>CtKag_CtKagProcedurevariable_CTKAGHjertefrekvens</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_NedsatNyrefunktion</t>
         </is>
       </c>
     </row>
@@ -10354,12 +10289,12 @@
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>Less than or equal to: 220 | Greater than or equal to: 10</t>
+          <t xml:space="preserve">Enums/Udfald: | "normal" | "moderat" | "svaer" | "dialyse" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -10371,24 +10306,24 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>CtKag_CtKagProcedurevariable_CTKAGSublingualNitroglycerin</t>
+          <t>Pci_PciAnamnese_AnkomstKardLab</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="D687" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -10400,7 +10335,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>CtKag_CtKagProcedurevariable_CTKAGKontrastmaengde</t>
+          <t>Ecpr_HS_intub_foer</t>
         </is>
       </c>
     </row>
@@ -10412,7 +10347,12 @@
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -10424,7 +10364,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>CtKag_CtKagProcedurevariable_CTKAGCalciumscore</t>
+          <t>Pci_PciAnamnese_Komplikation</t>
         </is>
       </c>
     </row>
@@ -10436,12 +10376,12 @@
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>Less than or equal to: 10000</t>
+          <t xml:space="preserve">Enums/Udfald: | "ingen" | "mitralinsufficiens" | "vsd" | "frivaegsruptur" | </t>
         </is>
       </c>
     </row>
@@ -10453,24 +10393,24 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>CtKag_Vaegt</t>
+          <t>Pci_PciAnamnese_FirstMedicalContact</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="D693" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>Less than or equal to: 250 | Greater than or equal to: 0</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -10482,7 +10422,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>CtKag_Hoejde</t>
+          <t>CtKag_Vaegt</t>
         </is>
       </c>
     </row>
@@ -10499,7 +10439,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>Less than or equal to: 230 | Greater than or equal to: 0</t>
+          <t>Less than or equal to: 250 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10451,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_FriedFrailtyScoreTotal</t>
+          <t>PciSegmentList_Referencesegment_efter</t>
         </is>
       </c>
     </row>
@@ -10526,11 +10466,6 @@
           <t>Integer</t>
         </is>
       </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>Less than or equal to: 9 | Greater than or equal to: 0</t>
-        </is>
-      </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -10540,7 +10475,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_PlanlagtPCIellerCABG</t>
+          <t>TAVI_TaviProcedureData_Praedilation</t>
         </is>
       </c>
     </row>
@@ -10569,7 +10504,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_AortaklapArealPreCm2</t>
+          <t>Ecpr_HS_rytme_foerste</t>
         </is>
       </c>
     </row>
@@ -10581,12 +10516,12 @@
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>Float</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>Less than or equal to: 2 | Greater than or equal to: 0.2</t>
+          <t xml:space="preserve">Enums/Udfald: | "aed_tolket_stoedbar_rytme" | "vf" | "vt" | "pea" | "asystoli" | "afli_afla_svt" | "av_blok_grad_2_3" | "sinusrytme" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -10598,7 +10533,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviKlapmorfologi</t>
+          <t>PciSegmentList_PciSaerligtUdstyr</t>
         </is>
       </c>
     </row>
@@ -10615,7 +10550,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nativ_klap_uoplyst_morfologi" | "nativ_klap_tav" | "nativ_klap_bav" | "kirurgisk_bioprotese" | "tavi_protese" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "rotablation" | "lithytrypsi__shockwave_" | "laser_atherectomi" | </t>
         </is>
       </c>
     </row>
@@ -10627,29 +10562,19 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>CtKag_ProcedureDato</t>
+          <t>TAVI_TaviPostProcedureData_IndlaeggelsestidDage</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="D705" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -10661,7 +10586,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>PciSegmentList_Medina_klassifikation</t>
+          <t>Pci_PciAnamnese_Killip</t>
         </is>
       </c>
     </row>
@@ -10678,7 +10603,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | 1_0_0 | 0_1_0 | 0_0_1 | 1_1_1 | 1_1_0 | 0_1_1 | 1_0_1 | </t>
+          <t xml:space="preserve">Enums/Udfald: | "i" | "ii" | "iii" | "iv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -10690,7 +10615,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>PciSegmentList_Max_ballontryk</t>
+          <t>Pci_PciProcedureVariable_Fibrinolyse</t>
         </is>
       </c>
     </row>
@@ -10702,7 +10627,12 @@
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>Float</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -10714,7 +10644,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>CtKag_CtKagIndikation</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_KroniskLungesygdom</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10661,7 @@
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "uafklarede_brystsmerter_aandenoed" | "fremstilling_koronar_bypass_grafter" | "fremstilling_anden_anatomi" | "kardiomyopati_uafklaret_hjerteinsufficiens" | "klap_og_eller_aortasygdom" | "andet" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -10743,7 +10673,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>CtKag_Henvisningsmaade</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_PeriferArterielKarsygdom</t>
         </is>
       </c>
     </row>
@@ -10760,7 +10690,7 @@
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "akut" | "subakut" | "elektiv" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -10772,7 +10702,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>PciSegmentList_Ballon_diameter</t>
+          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_AkutCabg</t>
         </is>
       </c>
     </row>
@@ -10784,7 +10714,12 @@
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>Float</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -10796,7 +10731,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>PciSegmentList_Referencesegment_foer</t>
+          <t>TAVI_TaviProcedureData_Postdilation</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10743,12 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -10820,24 +10760,19 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>CtKag_HenvisningsDato</t>
+          <t>PciSegmentList_Ballon_diameter</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="D719" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="G719" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Float</t>
         </is>
       </c>
     </row>
@@ -10849,7 +10784,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>PciSegmentList_PciBehandlingsresultat</t>
+          <t>PciSegmentList_pciCTO_ad_hoc_planlagt</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10801,7 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "vellykket" | "mislykket" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ad_hoc" | "planlagt" | </t>
         </is>
       </c>
     </row>
@@ -10878,7 +10813,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>PciSegmentList_Referencesegment_efter</t>
+          <t>TAVI_TaviProcedureData_TaviLukningAfAdgangsvej</t>
         </is>
       </c>
     </row>
@@ -10890,7 +10825,12 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "kirurgisk" | "lukkedevice" | "andet" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -10931,7 +10871,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>PciSegmentList_Stenosegrad_efter</t>
+          <t>PciSegmentList_PciStenttype</t>
         </is>
       </c>
     </row>
@@ -10943,12 +10883,12 @@
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>Less than or equal to: 100 | Greater than or equal to: 1</t>
+          <t xml:space="preserve">Enums/Udfald: | "des" | "bms" | "brs" | "cov" | </t>
         </is>
       </c>
     </row>
@@ -10960,7 +10900,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>PciSegmentList_TIMI_flow_foer</t>
+          <t>PciSegmentList_Last_remaining_vessel</t>
         </is>
       </c>
     </row>
@@ -10972,12 +10912,12 @@
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G729" t="inlineStr">
         <is>
-          <t>Less than or equal to: 3 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -10989,7 +10929,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>PciSegmentList_TIMI_flow_efter</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_NedsatMobilitet</t>
         </is>
       </c>
     </row>
@@ -11001,12 +10941,12 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>Less than or equal to: 3 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -11018,7 +10958,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Ecpr_HS_hlr_hjloeber</t>
+          <t>Ecpr_HS_amio_foer</t>
         </is>
       </c>
     </row>
@@ -11030,12 +10970,12 @@
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 1200 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -11047,7 +10987,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Ecpr_HS_lowflow_lab</t>
+          <t>CtKag_Hoejde</t>
         </is>
       </c>
     </row>
@@ -11062,6 +11002,11 @@
           <t>Integer</t>
         </is>
       </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>Less than or equal to: 230 | Greater than or equal to: 0</t>
+        </is>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -11071,7 +11016,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Ecpr_HS_lowflow_total</t>
+          <t>TAVI_TaviProcedureData_ProcedurevarighedInMinutes</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11040,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Ecpr_HS_icu_lvef_udskr</t>
+          <t>PciSegmentList_PciLaesionsbehandlingVurdering</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11052,12 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "angiografisk" | "ffr" | "ifr" | "ivus" | "ofdi" | "nirs" | "oct" | </t>
         </is>
       </c>
     </row>
@@ -11119,24 +11069,24 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Ecpr_HS_ttm</t>
+          <t>Ecpr_HS_ems_amb_ank</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="D741" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G741" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -11148,7 +11098,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Ecpr_HS_komp_devicefail</t>
+          <t>Kir_KirPakkeforloeb</t>
         </is>
       </c>
     </row>
@@ -11165,7 +11115,7 @@
       </c>
       <c r="G743" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "stabil_angina_pectoris" | "uap_nstemi" | "hjertesvigt" | "hjerteklapsygdom" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -11177,7 +11127,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Ecpr_HS_hosp_udskr_ilive</t>
+          <t>PciSegmentList_Bifurkaturstentning_MedBallon</t>
         </is>
       </c>
     </row>
@@ -11194,7 +11144,7 @@
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -11206,7 +11156,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Ecpr_HS_Ino_Type_Dobutamin</t>
+          <t>Pci_PciKomplikationer_PciIndstiksrelaterede_Pseudoaneurysme</t>
         </is>
       </c>
     </row>
@@ -11235,7 +11185,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Ecpr_HS_Ino_Type_Levodimendan</t>
+          <t>TAVI_TaviPostProcedureData_BloedningInterventionskraevende</t>
         </is>
       </c>
     </row>
@@ -11252,7 +11202,7 @@
       </c>
       <c r="G749" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja_livstruende_bloedning" | "ja_stoerre_bloedning" | "ja_mindre_bloedning" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -11264,24 +11214,24 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Ecpr_HS_komp_bloed</t>
+          <t>TAVI_TaviProAktivEndokarditgnostiskeFaktorer_HenvistPgaPorcelaensaorta</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="D751" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -11293,7 +11243,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Ecpr_HS_komp_haemolyse</t>
+          <t>TAVI_TaviProAktivEndokarditgnostiskeFaktorer_Hoejde</t>
         </is>
       </c>
     </row>
@@ -11305,12 +11255,12 @@
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 230 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11272,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Ecpr_HS_ekg_iskaemi_lab</t>
+          <t>TAVI_TaviProcedureData_TaviKlaptype</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11289,7 @@
       </c>
       <c r="G755" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ekg_ikke_taget" | "ste" | "std" | "bbb" | "ingen" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "corevalve" | "edwards" | "edwards_s3" | "edwards_xt" | "edwards_ultra" | "portico" | "symetis" | "evolute" | "evolute_pro" | "jena" | "lotus" | "centera" | "myval" | "navitor" | "accurate_neo_2" | "andet" | "ingen_klap" | </t>
         </is>
       </c>
     </row>
@@ -11351,24 +11301,24 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Ecpr_HS_ekg_foer_mcs</t>
+          <t>Pci_PciAnamnese_AmkomstPCIcenter</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="D757" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G757" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -11380,7 +11330,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Ecpr_HS_komp_dvt</t>
+          <t>PciSegmentList_Referencesegment_foer</t>
         </is>
       </c>
     </row>
@@ -11392,12 +11342,7 @@
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -11409,7 +11354,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Ecpr_HS_cpc_udskr</t>
+          <t>TAVI_TaviProcedureData_TaviAdgangsvej</t>
         </is>
       </c>
     </row>
@@ -11426,7 +11371,7 @@
       </c>
       <c r="G761" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "god_funktion__vaagen_og_klar" | "moderat_nedsat_funktion__vaagen__klarer_daglige_goeremaal" | "svaer_nedsat_funktion__vaagen__afhaengig_af_andre" | "coma_eller_vegetativ_tilstand" | "hjernedoed" | "ved_ikke" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "hoejre_femoralis" | "venstre_femoralis" | "hoejre_subclavia" | "venstre_subclavia" | "direct_aorta" | "transapikalt" | "anden" | "hoejre_axilliaer" | "venstre_axilliaer" | </t>
         </is>
       </c>
     </row>
@@ -11438,24 +11383,24 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Ecpr_HS_icu_ind_tid</t>
+          <t>PciSegmentList_PciLaesionType</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="D763" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "a" | "b1" | "b2" | "c" | </t>
         </is>
       </c>
     </row>
@@ -11467,7 +11412,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Ecpr_HS_hb_ank_lab</t>
+          <t>PciSegmentList_pciCTO_CTO</t>
         </is>
       </c>
     </row>
@@ -11479,7 +11424,12 @@
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -11491,7 +11441,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Ecpr_HS_ekg_rytme_lab</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_Vaegt</t>
         </is>
       </c>
     </row>
@@ -11503,12 +11453,12 @@
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G767" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "vf" | "vt" | "pea" | "asystoli" | "afli_afl_svt" | "av_blok_grad_2_3" | "sinusrytme" | "uoplyst" | </t>
+          <t>Less than or equal to: 250 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11470,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Ecpr_HS_rehab_henv</t>
+          <t>Ecpr_HS_ems_laege</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11499,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Ecpr_HS_nyresvigt_indl</t>
+          <t>CtKag_Rygning</t>
         </is>
       </c>
     </row>
@@ -11566,7 +11516,7 @@
       </c>
       <c r="G771" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "kdigo_stage_1" | "kdigo_stage_2" | "kdigo_stage_3" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "aldrig" | "ophoert" | "aktiv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -11578,7 +11528,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Ecpr_HS_bevidnet</t>
+          <t>CtKag_Diabetes</t>
         </is>
       </c>
     </row>
@@ -11595,7 +11545,7 @@
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja_non_farmakologisk_behandling" | "ja_insulinbehandling" | "ja_nydiagnosticeret" | "ja_non_insulin_farmakologisk_behandling" | </t>
         </is>
       </c>
     </row>
@@ -11607,7 +11557,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Ecpr_HS_dialyse_indl</t>
+          <t>PciSegmentList_Post_dilatation</t>
         </is>
       </c>
     </row>
@@ -11624,7 +11574,7 @@
       </c>
       <c r="G775" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -11636,7 +11586,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Ecpr_HS_bls_ank_lab</t>
+          <t>Ecpr_HS_hlr_andre</t>
         </is>
       </c>
     </row>
@@ -11648,7 +11598,12 @@
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -11660,7 +11615,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Ecpr_HS_ka_ank_lab</t>
+          <t>KagSegment_Stenosegrad</t>
         </is>
       </c>
     </row>
@@ -11675,6 +11630,11 @@
           <t>Integer</t>
         </is>
       </c>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>Less than or equal to: 100 | Greater than or equal to: 0</t>
+        </is>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -11684,7 +11644,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Ecpr_HS_Ino_Type_Andet</t>
+          <t>Ecpr_Hoejde</t>
         </is>
       </c>
     </row>
@@ -11696,12 +11656,12 @@
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G781" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 230 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -11713,7 +11673,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Ecpr_HS_afem_bypass_str</t>
+          <t>Pci_PciKomplikationer_PciIndstiksrelaterede_LukkedeviceBetingetKomplBehovForKirurgi</t>
         </is>
       </c>
     </row>
@@ -11725,7 +11685,12 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -11737,7 +11702,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Ecpr_HS_Ino_Type_Milrinone</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_PostinfarktVSD</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11731,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Ecpr_HS_byst_hlr</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_ArytmiDevice</t>
         </is>
       </c>
     </row>
@@ -11795,24 +11760,24 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Ecpr_HS_imp_afv_tid</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_FEV1Procent</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="D789" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G789" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Less than or equal to: 200 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -11824,7 +11789,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Ecpr_HS_icu</t>
+          <t>Pci_PciAnamnese_DiagnostikVisitation</t>
         </is>
       </c>
     </row>
@@ -11841,7 +11806,7 @@
       </c>
       <c r="G791" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "praeh_diag_direkte_til_pci_center" | "praeh_diag__omkring_lokalsygehus" | "diagnose_paa_lokalsygehus" | "overflyttet" | "diagnose_efter_indl__pci_center" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -11853,7 +11818,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Ecpr_HS_Ino_Type_Adrenalin</t>
+          <t>Ecpr_HS_Indikation</t>
         </is>
       </c>
     </row>
@@ -11870,7 +11835,7 @@
       </c>
       <c r="G793" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ohca_undersoegt_kard_lab" | "hjertestop_efter_ankomst_kard_lab" | "ihca_undersoeg_kard_lab" | "hypoterm_patient" | "kardiogent_shock_undersoegt_kard_lab" | "postoperativt_va_ecmo_impella" | "anden__uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -11882,7 +11847,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>Ecpr_HS_laktat_ank_lab</t>
+          <t>PciSegmentList_Bifurkaturstentning</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11859,12 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "1_stent" | "dk_crush" | "culotte" | "t_stent" | "tap_stent" | "andet" | </t>
         </is>
       </c>
     </row>
@@ -11906,24 +11876,19 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Ecpr_HS_icu_udskr_tid</t>
+          <t>PciSegmentList_LaesionLaengde</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="D797" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Integer</t>
         </is>
       </c>
     </row>
@@ -11935,24 +11900,24 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>Ecpr_HS_imp_tid</t>
+          <t>Ecpr_AnamneseDialyse</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="D799" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G799" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -11964,24 +11929,24 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>Ecpr_HS_icu_udskr_ilive</t>
+          <t>Pci_PciAnamnese_Debuttidspunkt</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="D801" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G801" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -11993,7 +11958,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Ecpr_HS_ph_ank_lab</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_FVCProcent</t>
         </is>
       </c>
     </row>
@@ -12008,6 +11973,11 @@
           <t>Integer</t>
         </is>
       </c>
+      <c r="G803" t="inlineStr">
+        <is>
+          <t>Less than or equal to: 200 | Greater than or equal to: 0</t>
+        </is>
+      </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
@@ -12017,7 +11987,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>Ecpr_HS_bt_sys</t>
+          <t>Pci_PciAnamnese_AnamneseBT_Diastolisk</t>
         </is>
       </c>
     </row>
@@ -12041,7 +12011,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Ecpr_HS_lvef24</t>
+          <t>Ecpr_Diabetes</t>
         </is>
       </c>
     </row>
@@ -12053,7 +12023,12 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G807" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja_non_farmakologisk_behandling" | "ja_insulinbehandling" | "ja_nydiagnosticeret" | "ja_non_insulin_farmakologisk_behandling" | </t>
         </is>
       </c>
     </row>
@@ -12065,24 +12040,24 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>Ecpr_HS_hjstop_tid</t>
+          <t>TAVI_TaviPostProcedureData_TaviRytmeforstyrrelser_VFVT</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="D809" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -12094,7 +12069,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Ecpr_HS_vaecmo_kan_ul</t>
+          <t>Pci_PciProcedureVariable_MekaniskAssist</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12086,7 @@
       </c>
       <c r="G811" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -12123,7 +12098,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Ecpr_HS_eCPR_nej</t>
+          <t>PciSegmentList_Ve_Hovedstamme_LM</t>
         </is>
       </c>
     </row>
@@ -12140,7 +12115,7 @@
       </c>
       <c r="G813" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "patient_stabiliseret___ikke_behov" | "pea_asystoli" | "_lang_ukendt_no_flow" | "lang_ukendt_low_flow" | "lav_endtidal_co2" | "lav_ph" | "hoej_laktat" | "komorbiditet" | "hoej_alder" | "ubevidnet_hjertestop" | "rosc_ikke_opnaaet" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja_beskyttet" | "ja_ubeskyttet" | </t>
         </is>
       </c>
     </row>
@@ -12152,7 +12127,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>Ecpr_HS_amio_lab</t>
+          <t>Pci_PciProcedureVariable_Bivalirudin</t>
         </is>
       </c>
     </row>
@@ -12164,12 +12139,12 @@
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G815" t="inlineStr">
         <is>
-          <t>Less than or equal to: 1200 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -12181,7 +12156,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Ecpr_HS_ekko_bev</t>
+          <t>TAVI_TaviProcedureData_TaviMekaniskSupport</t>
         </is>
       </c>
     </row>
@@ -12198,7 +12173,7 @@
       </c>
       <c r="G817" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja_ikke_planlagt" | "ja_planlagt" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -12210,7 +12185,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>Ecpr_HS_mors_aarsag</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviKlapmorfologi</t>
         </is>
       </c>
     </row>
@@ -12227,7 +12202,7 @@
       </c>
       <c r="G819" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "incarceration" | "hjertesvigt" | "multiorgansvigt" | "bloedning_vlst_" | "device_failure" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "nativ_klap_uoplyst_morfologi" | "nativ_klap_tav" | "nativ_klap_bav" | "kirurgisk_bioprotese" | "tavi_protese" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -12239,7 +12214,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Ecpr_HS_etco2_intub</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_AorticAnnulusMM</t>
         </is>
       </c>
     </row>
@@ -12254,6 +12229,11 @@
           <t>Integer</t>
         </is>
       </c>
+      <c r="G821" t="inlineStr">
+        <is>
+          <t>Less than or equal to: 40 | Greater than or equal to: 10</t>
+        </is>
+      </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
@@ -12263,7 +12243,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>Ecpr_HS_imp_afv</t>
+          <t>Pci_PciKomplikationer_PciIndstiksrelaterede_ArterielOkklusionDissektionBehovForKirurgi</t>
         </is>
       </c>
     </row>
@@ -12292,7 +12272,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Ecpr_HS_defib_antal_lab</t>
+          <t>TAVI_TaviProcedureData_Operatoer1</t>
         </is>
       </c>
     </row>
@@ -12304,7 +12284,12 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G825" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "kardiolog" | "thoraxkirurg" | </t>
         </is>
       </c>
     </row>
@@ -12316,7 +12301,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>Ecpr_HS_lvef</t>
+          <t>PciSegmentList_Stentlaengde</t>
         </is>
       </c>
     </row>
@@ -12340,7 +12325,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>Ecpr_HS_etco2_ank_lab</t>
+          <t>Pci_PciAnamnese_AnamneseBT_Systolisk</t>
         </is>
       </c>
     </row>
@@ -12364,24 +12349,29 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Ecpr_HS_komp_ue_isk</t>
+          <t>TAVI_TaviProcedureData_ProcedureDato</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="D831" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G831" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12383,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>Ecpr_HS_livstegn_lab</t>
+          <t>Pci_PciProcedureVariable_AnaestesiAssistance</t>
         </is>
       </c>
     </row>
@@ -12410,7 +12400,7 @@
       </c>
       <c r="G833" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "ikke_hlr_ophoert_behandling" | "ikke_relevant_rosc" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -12422,7 +12412,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>Ecpr_HS_vaecmo_afv</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_AorticAnnulusMetode</t>
         </is>
       </c>
     </row>
@@ -12439,7 +12429,7 @@
       </c>
       <c r="G835" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ekko" | "hjertect" | </t>
         </is>
       </c>
     </row>
@@ -12451,7 +12441,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Ecpr_HS_vaecmo_kan_teknik</t>
+          <t>Ecpr_AnamneseEF</t>
         </is>
       </c>
     </row>
@@ -12463,12 +12453,12 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G837" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "seldinger" | "cutdown" | "uoplyst" | </t>
+          <t>Less than or equal to: 100 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -12480,7 +12470,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>Ecpr_HS_aarsag_kardiel</t>
+          <t>Pci_PciAnamnese_AnamneseIHSIFamilien</t>
         </is>
       </c>
     </row>
@@ -12497,7 +12487,7 @@
       </c>
       <c r="G839" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "akut_myokardi_infarkt" | "lungeemboli" | "primaer_arytmi" | "tamponade" | "aortadissektion" | "myokardit" | "kronisk_hjertesvigt" | "andet" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -12509,7 +12499,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>Ecpr_HS_vaecmo_afv_tid</t>
+          <t>Pci_PciAnamnese_AnamneseDatoTidspunkt</t>
         </is>
       </c>
     </row>
@@ -12538,7 +12528,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>Ecpr_HS_rytme_ank_lab</t>
+          <t>CtKag_CtKagKonsekvens</t>
         </is>
       </c>
     </row>
@@ -12555,7 +12545,7 @@
       </c>
       <c r="G843" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "vf" | "vt" | "pea" | "asystoli" | "afli_afla_svt" | "av_blok_2_3" | "sinusrytme" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ingen_behandling" | "medicinsk_behandling" | "henvisning_invasiv_undersoegelse" | "henvisning_perfusions_funktionsundersoegelse" | "andet" | </t>
         </is>
       </c>
     </row>
@@ -12567,7 +12557,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Ecpr_HS_aarsag_hjstop</t>
+          <t>CtKag_CtKagEvaluerbarUndersoegelse</t>
         </is>
       </c>
     </row>
@@ -12584,7 +12574,7 @@
       </c>
       <c r="G845" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "kardiel" | "traume" | "drukning" | "respiratorisk" | "tosisk" | "cerebral" | "gastrointestinal_bloedning" | "elektroforstyrrelse" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "evaluerbar" | "delvis_evaluerbar" | "ikke_evaluerbar" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -12596,7 +12586,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>Ecpr_HS_outcome_lab</t>
+          <t>TAVI_TaviPostProcedureData_TaviProtesePatientMismatch</t>
         </is>
       </c>
     </row>
@@ -12613,7 +12603,7 @@
       </c>
       <c r="G847" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "doed_paa_lab" | "i_live_ved_afgang" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "insignifikant" | "moderat" | "svaer" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -12625,7 +12615,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Ecpr_HS_intub_foer</t>
+          <t>Pci_PciPrognostiskeFaktorer_Rygning</t>
         </is>
       </c>
     </row>
@@ -12642,7 +12632,7 @@
       </c>
       <c r="G849" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "aldrig" | "ophoert" | "aktiv" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -12654,7 +12644,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Ecpr_HS_Ino_Type_Dopamin</t>
+          <t>TAVI_TaviPostProcedureData_AkutNyreinsufficiens</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12661,7 @@
       </c>
       <c r="G851" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "stadie_1" | "stadie_2" | "stadie_3" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -12683,7 +12673,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>Ecpr_HS_eCPR</t>
+          <t>Pci_PciPrognostiskeFaktorer_Hoejde</t>
         </is>
       </c>
     </row>
@@ -12695,12 +12685,12 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G853" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ikke_etableret" | "va_ecmo" | "impella" | "va_ecmo_impella" | "ukendt" | </t>
+          <t>Less than or equal to: 230 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -12712,24 +12702,24 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>Ecpr_HS_ankomst_lab_tid</t>
+          <t>PciSegmentList_Bifurkatur</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="D855" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G855" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -12741,24 +12731,24 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>Ecpr_HS_kat_str_v</t>
+          <t>Kir_HenvisningsDato</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="D857" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
         <is>
-          <t>Less than or equal to: 26 | Greater than or equal to: 18</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -12770,7 +12760,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>Ecpr_HS_komp_apo</t>
+          <t>Pci_PciProcedurerelateretKomplikationer_KateterinduceretDissektion</t>
         </is>
       </c>
     </row>
@@ -12787,7 +12777,7 @@
       </c>
       <c r="G859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -12799,7 +12789,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Ecpr_HS_komp_hjertetampo</t>
+          <t>Pci_PciProcedureVariable_ASA</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12806,7 @@
       </c>
       <c r="G861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -12828,7 +12818,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Ecpr_HS_komp_anden</t>
+          <t>TAVI_TaviProcedureData_PraedilationDiameterMM</t>
         </is>
       </c>
     </row>
@@ -12840,12 +12830,12 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G863" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 30 | Greater than or equal to: 18</t>
         </is>
       </c>
     </row>
@@ -12857,7 +12847,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>Ecpr_HS_adr_foer</t>
+          <t>Pci_PciKomplikationer_PciIndstiksrelaterede_BloedningBehovForTransfusion</t>
         </is>
       </c>
     </row>
@@ -12869,12 +12859,12 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G865" t="inlineStr">
         <is>
-          <t>Less than or equal to: 10 | Greater than or equal to: 0</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -12886,7 +12876,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Ecpr_HSUnderIndlaeggelse</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_PeakGradientPreMmHg</t>
         </is>
       </c>
     </row>
@@ -12898,12 +12888,12 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G867" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 200 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -12915,7 +12905,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>Ecpr_HS_Ino_Type_Noradrenalin</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_HenvistPgaPorcelaensaorta</t>
         </is>
       </c>
     </row>
@@ -12927,12 +12917,12 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 100 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -12944,7 +12934,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Ecpr_HS_low_flow_foer</t>
+          <t>PciSegmentList_PciIntervention</t>
         </is>
       </c>
     </row>
@@ -12956,7 +12946,12 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "stent" | "poba__non_deb_" | "poba__deb_" | "anden_intervention" | "mislykket" | </t>
         </is>
       </c>
     </row>
@@ -12968,7 +12963,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Ecpr_HS_ttm_target</t>
+          <t>TAVI_TaviPostProcedureData_TaviProteseInsufficiensGrad</t>
         </is>
       </c>
     </row>
@@ -12980,12 +12975,12 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t>str/int, Enum</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | 30 | 31 | 32 | 33 | 34 | 35 | 36 | 37 | 39 | "ukendt" | "ved_ikke" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ingen" | "mild" | "moderat" | "svaer" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -12997,7 +12992,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_Pulmonalhypertension</t>
+          <t>Pci_PciPrognostiskeFaktorer_Vaegt</t>
         </is>
       </c>
     </row>
@@ -13009,12 +13004,12 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "moderat" | "svaer" | "uoplyst" | </t>
+          <t>Less than or equal to: 250 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13021,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_UstabilAngina</t>
+          <t>TAVI_TaviPostProcedureData_ProteseKlapareal</t>
         </is>
       </c>
     </row>
@@ -13038,12 +13033,12 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 10 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -13055,7 +13050,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>Ecpr_HS_komp_tarm_isk</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_AortaklapArealPreCm2</t>
         </is>
       </c>
     </row>
@@ -13067,12 +13062,12 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Float</t>
         </is>
       </c>
       <c r="G879" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 2 | Greater than or equal to: 0.2</t>
         </is>
       </c>
     </row>
@@ -13084,7 +13079,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Ecpr_HS_komp_karkir</t>
+          <t>TAVI_TaviPostProcedureData_TaviProteseStenose</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13096,7 @@
       </c>
       <c r="G881" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "normal" | "mild" | "svaer" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -13113,7 +13108,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>Ecpr_HS_amio_foer</t>
+          <t>TAVI_TaviPostProcedureData_TransfusionBlodML</t>
         </is>
       </c>
     </row>
@@ -13130,7 +13125,7 @@
       </c>
       <c r="G883" t="inlineStr">
         <is>
-          <t>Less than or equal to: 1200 | Greater than or equal to: 0</t>
+          <t>Less than or equal to: 10000 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -13142,24 +13137,24 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>Ecpr_HS_rosc_tid</t>
+          <t>TAVI_TaviProcedureData_PostdilationDiameterMM</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="D885" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Greater than or equal to: 18 | Less than or equal to: 29</t>
         </is>
       </c>
     </row>
@@ -13171,7 +13166,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>Ecpr_HS_Ino_foer_afv</t>
+          <t>Pci_PciProcedureVariable_KritiskPraeoperativTilstand</t>
         </is>
       </c>
     </row>
@@ -13188,7 +13183,7 @@
       </c>
       <c r="G887" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -13200,7 +13195,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>Ecpr_HS_kat_str_a</t>
+          <t>PciSegmentList_SegmentType</t>
         </is>
       </c>
     </row>
@@ -13212,12 +13207,12 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
         <is>
-          <t>Less than or equal to: 26 | Greater than or equal to: 18</t>
+          <t xml:space="preserve">Enums/Udfald: | "nativ" | "lima" | "rima" | "radialis" | "vg" | </t>
         </is>
       </c>
     </row>
@@ -13229,24 +13224,24 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>Ecpr_HS_afem_bypass_tid</t>
+          <t>TAVI_TaviProcedureData_TaviAdgangsvejMetode</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="D891" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "perkutan" | "kirurgisk_adgang" | </t>
         </is>
       </c>
     </row>
@@ -13258,7 +13253,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>Ecpr_HS_rosc_ank_lab</t>
+          <t>TAVI_Indlaeggelsesdiagnose</t>
         </is>
       </c>
     </row>
@@ -13270,12 +13265,12 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="G893" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "paagaaende_hlr" | "behandling_indstillet" | "uoplyst" | </t>
+          <t>Maximum length: 6 | Minimum length: 1</t>
         </is>
       </c>
     </row>
@@ -13287,7 +13282,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Ecpr_HS_defib_foer</t>
+          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_TilkommetDialysekrav</t>
         </is>
       </c>
     </row>
@@ -13316,24 +13311,24 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>Kir_HenvisningsDato</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_FriedFrailtyScoreTotal</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="D897" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Less than or equal to: 9 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -13345,7 +13340,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>Ecpr_HS_imp_kanyl</t>
+          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_AllergiskReaktionSentIndtraeffende</t>
         </is>
       </c>
     </row>
@@ -13362,7 +13357,7 @@
       </c>
       <c r="G899" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "femoralis" | "subclavia" | "transthorakal" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -13374,7 +13369,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Ecpr_HS_komp_intrakranbloed</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_AkutKirurgiESII</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13386,7 @@
       </c>
       <c r="G901" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "akut" | "vital_indikation" | "elektiv" | "subakut" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -13403,7 +13398,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>Ecpr_HS_rytme_foerste</t>
+          <t>PciSegmentList_pciCTO_adgange</t>
         </is>
       </c>
     </row>
@@ -13415,12 +13410,12 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G903" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "aed_tolket_stoedbar_rytme" | "vf" | "vt" | "pea" | "asystoli" | "afli_afla_svt" | "av_blok_grad_2_3" | "sinusrytme" | "uoplyst" | </t>
+          <t>Less than or equal to: 2 | Greater than or equal to: 1</t>
         </is>
       </c>
     </row>
@@ -13432,7 +13427,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>Ecpr_HS_komp_fasciotomi</t>
+          <t>CtKag_EkstrakardielleForholdBeskrevet</t>
         </is>
       </c>
     </row>
@@ -13461,7 +13456,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>Ecpr_HS_defib_hvem</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_HjertekirurgiUdOverCABG</t>
         </is>
       </c>
     </row>
@@ -13478,7 +13473,7 @@
       </c>
       <c r="G907" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "laegmand" | "sundhedsperson" | "baade_laegmand_og_sundhedsperson" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "isoleret_cabg" | "single_non_cabg" | "to_procedurer" | "tre_procedurer" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -13490,7 +13485,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>Ecpr_HS_defib_lab</t>
+          <t>Pci_PciProcedureVariable_ADPantagonist</t>
         </is>
       </c>
     </row>
@@ -13507,7 +13502,7 @@
       </c>
       <c r="G909" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "clopidogrel" | "ticagrelor" | "prasugrel" | "cangrelor" | </t>
         </is>
       </c>
     </row>
@@ -13519,7 +13514,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>Ecpr_HS_revask</t>
+          <t>Pci_PciKomplikationer_PciIndstiksrelaterede_BloedningBehovForKirurgi</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13531,7 @@
       </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja__ad_hoc_pci" | "nej__elektiv_pci_hvis_restitueres" | "nej__stenoser_men_ikke_pci" | "nej__ikke_stenoser" | "nej__cabg_hvis_restitueres" | "nej__ny_kag_hvis_restitueres" | "nej__hjertekonf__hvis_restitueres" | "ja__cab_akut_subakut" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -13548,7 +13543,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>TAVI_TaviPrognostiskeFaktorer_TaviEuroSCORE_CerebrovaskulaerSygdom</t>
+          <t>PciSegmentList_Aortoostial_laesion</t>
         </is>
       </c>
     </row>
@@ -13565,7 +13560,7 @@
       </c>
       <c r="G913" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -13577,7 +13572,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>Ecpr_HS_defib_antal_foer</t>
+          <t>Pci_PciPrognostiskeFaktorer_Diabetes</t>
         </is>
       </c>
     </row>
@@ -13589,7 +13584,12 @@
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja_non_farmakologisk_behandling" | "ja_insulinbehandling" | "ja_nydiagnosticeret" | "ja_non_insulin_farmakologisk_behandling" | </t>
         </is>
       </c>
     </row>
@@ -13601,24 +13601,24 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Ecpr_HS_vaecmo_tid</t>
+          <t>TAVI_TaviPrognostiskeFaktorer_PlanlagtPCIellerCABG</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="D917" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E917" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G917" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -13630,24 +13630,24 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>Ecpr_HS_hosp_udskr_tid</t>
+          <t>TAVI_TaviPostProcedureData_AMIUnder72timer</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="D919" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E919" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "usikkert" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>Ecpr_HS_mek_hlr_foer</t>
+          <t>CtKag_Komplikationer</t>
         </is>
       </c>
     </row>
@@ -13688,24 +13688,19 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>Ecpr_HS_kag_kat_ind</t>
+          <t>TAVI_TaviProcedureData_Kontrasttype</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="D923" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="G923" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>String</t>
         </is>
       </c>
     </row>
@@ -13717,7 +13712,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>Ecpr_HS_afem_bypass</t>
+          <t>TAVI_TaviProcedureData_KonverteringTilKirurgi</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13741,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>Ecpr_HS_respirator_indl</t>
+          <t>Pci_PciProcedureVariable_ClosureDevice</t>
         </is>
       </c>
     </row>
@@ -13758,12 +13753,7 @@
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G927" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>String</t>
         </is>
       </c>
     </row>
@@ -13775,7 +13765,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>Ecpr_HS_imp_side</t>
+          <t>Pci_PciProcedurerelateretKomplikationer_Arytmi</t>
         </is>
       </c>
     </row>
@@ -13792,7 +13782,7 @@
       </c>
       <c r="G929" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "hoejre" | "venstre" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "af" | "blok" | "vfvt" | "andet" | </t>
         </is>
       </c>
     </row>
@@ -13804,24 +13794,24 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>Ecpr_HS_ems_laege_ank</t>
+          <t>TAVI_TaviProcedureData_TaviAnaestesi</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="D931" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G931" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ga" | "sedation_og_la" | </t>
         </is>
       </c>
     </row>
@@ -13833,7 +13823,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>Ecpr_HS_komp_gibloed</t>
+          <t>KagSegment_SegmentType</t>
         </is>
       </c>
     </row>
@@ -13850,7 +13840,7 @@
       </c>
       <c r="G933" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "nativ" | "lima" | "rima" | "radialis" | "vg" | </t>
         </is>
       </c>
     </row>
@@ -13862,7 +13852,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>Ecpr_HS_livstegn_foer</t>
+          <t>CtKag_CtKagProcedurevariable_CTKAGHjertefrekvens</t>
         </is>
       </c>
     </row>
@@ -13874,12 +13864,12 @@
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G935" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "nej" | "ja" | "ikke_relevant_rosc" | "uoplyst" | </t>
+          <t>Less than or equal to: 220 | Greater than or equal to: 10</t>
         </is>
       </c>
     </row>
@@ -13891,7 +13881,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>Ecpr_HS_noflow</t>
+          <t>CtKag_CtKagProcedurevariable_CTKAGAntalSygeKar</t>
         </is>
       </c>
     </row>
@@ -13903,7 +13893,12 @@
       </c>
       <c r="E937" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "1_vd" | "2_vd" | "3_vd" | "diffus_sygdom_uden_signifikante_stenoser" | "afsluttet_efter_calcium_score" | "0_vd" | </t>
         </is>
       </c>
     </row>
@@ -13915,7 +13910,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>Ecpr_HS_adr_lab</t>
+          <t>TAVI_TaviPostProcedureData_TaviRytmeforstyrrelser_AVBlok</t>
         </is>
       </c>
     </row>
@@ -13927,7 +13922,12 @@
       </c>
       <c r="E939" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>Ecpr_HS_vaecmo_kanyl</t>
+          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_AndenStoerreBloedning</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="G941" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "perifer" | "central" | "uoplyst" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>Ecpr_HS_imp_type</t>
+          <t>TAVI_TaviPostProcedureData_TaviRytmeforstyrrelser_Atrieflimmer</t>
         </is>
       </c>
     </row>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="G943" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | 2_5 | "cp" | 5_0 | "rp" | "2_5_cp_5_0_kombi" | "cp_smart_assist" | "5_5_smart_assist" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
         </is>
       </c>
     </row>
@@ -13997,24 +13997,24 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>Ecpr_HS_hlr_andre</t>
+          <t>TAVI_HenvisningsDato</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="D945" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E945" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="G945" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -14026,7 +14026,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>Ecpr_HS_ems_laege</t>
+          <t>TAVI_TaviProcedureData_TamponadeUnderProceduren</t>
         </is>
       </c>
     </row>
@@ -14055,7 +14055,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>Ecpr_HS_kag</t>
+          <t>Ecpr_Vaegt</t>
         </is>
       </c>
     </row>
@@ -14067,12 +14067,12 @@
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G949" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 250 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>Ecpr_HS_kompl</t>
+          <t>TAVI_TaviProcedureData_AntalKlapproteser</t>
         </is>
       </c>
     </row>
@@ -14096,12 +14096,12 @@
       </c>
       <c r="E951" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G951" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | "uoplyst" | </t>
+          <t>Less than or equal to: 9 | Greater than or equal to: 0</t>
         </is>
       </c>
     </row>
@@ -14113,24 +14113,24 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>Ecpr_HS_hlr_start</t>
+          <t>TAVI_TaviProcedureData_KlapstoerrelseMM</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="D953" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E953" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G953" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Less than or equal to: 34 | Greater than or equal to: 16</t>
         </is>
       </c>
     </row>
@@ -14142,24 +14142,24 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>Ecpr_HS_outcome_lab_doed_datotid</t>
+          <t>TAVI_TaviProcedureData_Operatoer2</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="D955" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E955" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G955" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "kardiolog" | "thoraxkirurg" | </t>
         </is>
       </c>
     </row>
@@ -14171,7 +14171,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>Ecpr_HS_hlr_sundhedsperson</t>
+          <t>Pci_PciKomplikationer_PciUnderIndlaeggelse_RetroperitonealBloedning</t>
         </is>
       </c>
     </row>
